--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446E34E-F952-4ECF-A37D-BED4B3FF2474}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C83C4A-45C4-4285-B791-433FF075165D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -287,6 +287,24 @@
   </si>
   <si>
     <t>'test_tcp','test_udp','test2_tcp'</t>
+  </si>
+  <si>
+    <t>test29</t>
+  </si>
+  <si>
+    <t>test30</t>
+  </si>
+  <si>
+    <t>1.1.1.1-10.10.10.10</t>
+  </si>
+  <si>
+    <t>20.20.20.20-30.30.30.30</t>
+  </si>
+  <si>
+    <t>test_range</t>
+  </si>
+  <si>
+    <t>1000-2000</t>
   </si>
 </sst>
 </file>
@@ -659,7 +677,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,13 +741,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -961,6 +982,22 @@
       </c>
       <c r="B29" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1013,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0D103-70F1-467C-A4A0-6C4FAD2E3DAB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1070,6 +1107,17 @@
         <v>1456</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1079,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6472A306-4237-4364-B563-EDDE513583A6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C83C4A-45C4-4285-B791-433FF075165D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A954E4-F638-4D0A-8299-FA034A1EB2B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -241,12 +241,6 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>Portnumbers</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>with Ansible</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Untrust</t>
   </si>
   <si>
-    <t>TCP</t>
-  </si>
-  <si>
     <t>DestinationZone</t>
   </si>
   <si>
@@ -305,6 +296,12 @@
   </si>
   <si>
     <t>1000-2000</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>test with ansible</t>
   </si>
 </sst>
 </file>
@@ -674,15 +671,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,42 +693,36 @@
         <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>73</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -986,18 +977,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1052,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0D103-70F1-467C-A4A0-6C4FAD2E3DAB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,15 +1062,15 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>1234</v>
@@ -1087,10 +1078,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>1234</v>
@@ -1098,10 +1089,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>1456</v>
@@ -1109,13 +1100,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1142,15 +1133,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A954E4-F638-4D0A-8299-FA034A1EB2B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8F172-9E58-40EF-9BD2-5DB708E41CC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>test with ansible</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>test1, test3</t>
+  </si>
+  <si>
+    <t>test2, test4</t>
   </si>
 </sst>
 </file>
@@ -671,15 +683,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -699,10 +714,13 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -713,16 +731,19 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1065,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1119,7 +1140,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8F172-9E58-40EF-9BD2-5DB708E41CC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C904C6-4400-48A7-AF02-AF178FC598B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="244">
   <si>
     <t>Name</t>
   </si>
@@ -43,189 +43,9 @@
     <t>Ipaddress</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>test16</t>
-  </si>
-  <si>
-    <t>test17</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
-    <t>test19</t>
-  </si>
-  <si>
-    <t>test20</t>
-  </si>
-  <si>
-    <t>test21</t>
-  </si>
-  <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>test23</t>
-  </si>
-  <si>
-    <t>test24</t>
-  </si>
-  <si>
-    <t>test25</t>
-  </si>
-  <si>
-    <t>test26</t>
-  </si>
-  <si>
-    <t>test27</t>
-  </si>
-  <si>
-    <t>test28</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
-  </si>
-  <si>
-    <t>1.1.1.7</t>
-  </si>
-  <si>
-    <t>1.1.1.8</t>
-  </si>
-  <si>
-    <t>1.1.1.9</t>
-  </si>
-  <si>
-    <t>1.1.1.10</t>
-  </si>
-  <si>
-    <t>1.1.1.11</t>
-  </si>
-  <si>
-    <t>1.1.1.12</t>
-  </si>
-  <si>
-    <t>1.1.1.13</t>
-  </si>
-  <si>
-    <t>1.1.1.14</t>
-  </si>
-  <si>
-    <t>1.1.1.15</t>
-  </si>
-  <si>
-    <t>1.1.1.16</t>
-  </si>
-  <si>
-    <t>1.1.1.17</t>
-  </si>
-  <si>
-    <t>10.10.10.0/24</t>
-  </si>
-  <si>
-    <t>20.20.20.0/14</t>
-  </si>
-  <si>
-    <t>10.10.10.0/25</t>
-  </si>
-  <si>
-    <t>20.20.20.0/15</t>
-  </si>
-  <si>
-    <t>10.10.10.0/26</t>
-  </si>
-  <si>
-    <t>20.20.20.0/16</t>
-  </si>
-  <si>
-    <t>10.10.10.0/27</t>
-  </si>
-  <si>
-    <t>20.20.20.0/17</t>
-  </si>
-  <si>
-    <t>10.10.10.0/28</t>
-  </si>
-  <si>
-    <t>20.20.20.0/18</t>
-  </si>
-  <si>
-    <t>10.10.10.0/29</t>
-  </si>
-  <si>
     <t>Objects</t>
   </si>
   <si>
-    <t>test_object1</t>
-  </si>
-  <si>
-    <t>test_object2</t>
-  </si>
-  <si>
-    <t>'test1','test2','test3','test4','test5','test6','test7'</t>
-  </si>
-  <si>
-    <t>'test8','test9','test10'</t>
-  </si>
-  <si>
     <t>SourceIP</t>
   </si>
   <si>
@@ -277,21 +97,6 @@
     <t>test_group</t>
   </si>
   <si>
-    <t>'test_tcp','test_udp','test2_tcp'</t>
-  </si>
-  <si>
-    <t>test29</t>
-  </si>
-  <si>
-    <t>test30</t>
-  </si>
-  <si>
-    <t>1.1.1.1-10.10.10.10</t>
-  </si>
-  <si>
-    <t>20.20.20.20-30.30.30.30</t>
-  </si>
-  <si>
     <t>test_range</t>
   </si>
   <si>
@@ -314,6 +119,654 @@
   </si>
   <si>
     <t>test2, test4</t>
+  </si>
+  <si>
+    <t>test_tcp,test_udp,test2_tcp</t>
+  </si>
+  <si>
+    <t>10.122.92.0/23</t>
+  </si>
+  <si>
+    <t>10.232.0.0/16</t>
+  </si>
+  <si>
+    <t>10.233.0.0/18</t>
+  </si>
+  <si>
+    <t>10.233.64.0/18</t>
+  </si>
+  <si>
+    <t>10.53.0.0/21</t>
+  </si>
+  <si>
+    <t>10.87.255.0/24</t>
+  </si>
+  <si>
+    <t>172.21.18.0/24</t>
+  </si>
+  <si>
+    <t>172.23.254.0/23</t>
+  </si>
+  <si>
+    <t>172.31.0.0/16</t>
+  </si>
+  <si>
+    <t>192.168.114.0/24</t>
+  </si>
+  <si>
+    <t>192.168.115.0/24</t>
+  </si>
+  <si>
+    <t>10.233.129.0/24</t>
+  </si>
+  <si>
+    <t>10.233.130.0/24</t>
+  </si>
+  <si>
+    <t>10.233.144.0/22</t>
+  </si>
+  <si>
+    <t>10.162.12.0/23</t>
+  </si>
+  <si>
+    <t>10.162.60.0/23</t>
+  </si>
+  <si>
+    <t>10.162.62.0/23</t>
+  </si>
+  <si>
+    <t>10.162.64.0/23</t>
+  </si>
+  <si>
+    <t>10.163.10.0/23</t>
+  </si>
+  <si>
+    <t>10.163.2.0/23</t>
+  </si>
+  <si>
+    <t>10.163.4.0/23</t>
+  </si>
+  <si>
+    <t>10.163.8.0/23</t>
+  </si>
+  <si>
+    <t>10.164.2.0/23</t>
+  </si>
+  <si>
+    <t>10.164.24.0/23</t>
+  </si>
+  <si>
+    <t>10.162.252.5</t>
+  </si>
+  <si>
+    <t>10.163.251.10</t>
+  </si>
+  <si>
+    <t>10.163.251.13</t>
+  </si>
+  <si>
+    <t>10.163.251.14</t>
+  </si>
+  <si>
+    <t>10.163.251.17</t>
+  </si>
+  <si>
+    <t>10.163.251.18</t>
+  </si>
+  <si>
+    <t>10.163.251.6</t>
+  </si>
+  <si>
+    <t>10.164.251.10</t>
+  </si>
+  <si>
+    <t>10.164.251.5</t>
+  </si>
+  <si>
+    <t>10.164.251.6</t>
+  </si>
+  <si>
+    <t>10.204.251.37</t>
+  </si>
+  <si>
+    <t>10.204.251.38</t>
+  </si>
+  <si>
+    <t>10.117.0.0/16</t>
+  </si>
+  <si>
+    <t>10.118.0.0/16</t>
+  </si>
+  <si>
+    <t>10.119.0.0/16</t>
+  </si>
+  <si>
+    <t>10.122.0.0/18</t>
+  </si>
+  <si>
+    <t>10.122.64.0/20</t>
+  </si>
+  <si>
+    <t>10.122.80.0/21</t>
+  </si>
+  <si>
+    <t>10.122.88.0/22</t>
+  </si>
+  <si>
+    <t>10.122.94.0/23</t>
+  </si>
+  <si>
+    <t>10.122.96.0/19</t>
+  </si>
+  <si>
+    <t>10.123.0.0/16</t>
+  </si>
+  <si>
+    <t>10.124.0.0/16</t>
+  </si>
+  <si>
+    <t>10.125.0.0/16</t>
+  </si>
+  <si>
+    <t>10.162.243.72/29</t>
+  </si>
+  <si>
+    <t>10.162.251.0/24</t>
+  </si>
+  <si>
+    <t>10.163.253.0/30</t>
+  </si>
+  <si>
+    <t>10.164.245.64/29</t>
+  </si>
+  <si>
+    <t>10.164.251.12/30</t>
+  </si>
+  <si>
+    <t>10.165.251.4/30</t>
+  </si>
+  <si>
+    <t>10.203.22.16/28</t>
+  </si>
+  <si>
+    <t>10.203.25.240/28</t>
+  </si>
+  <si>
+    <t>10.204.251.12/30</t>
+  </si>
+  <si>
+    <t>10.204.251.8/30</t>
+  </si>
+  <si>
+    <t>10.204.4.0/23</t>
+  </si>
+  <si>
+    <t>10.204.6.0/23</t>
+  </si>
+  <si>
+    <t>10.233.0.0/16</t>
+  </si>
+  <si>
+    <t>10.43.192.0/18</t>
+  </si>
+  <si>
+    <t>10.53.16.0/20</t>
+  </si>
+  <si>
+    <t>10.53.255.0/24</t>
+  </si>
+  <si>
+    <t>10.53.32.0/19</t>
+  </si>
+  <si>
+    <t>10.53.64.0/18</t>
+  </si>
+  <si>
+    <t>10.55.10.0/24</t>
+  </si>
+  <si>
+    <t>10.55.11.0/24</t>
+  </si>
+  <si>
+    <t>10.56.100.0/24</t>
+  </si>
+  <si>
+    <t>10.56.101.0/24</t>
+  </si>
+  <si>
+    <t>10.56.104.0/24</t>
+  </si>
+  <si>
+    <t>10.56.108.0/24</t>
+  </si>
+  <si>
+    <t>10.56.110.0/24</t>
+  </si>
+  <si>
+    <t>10.56.112.0/20</t>
+  </si>
+  <si>
+    <t>10.56.152.144/29</t>
+  </si>
+  <si>
+    <t>10.56.152.152/29</t>
+  </si>
+  <si>
+    <t>10.56.152.192/29</t>
+  </si>
+  <si>
+    <t>10.56.152.200/29</t>
+  </si>
+  <si>
+    <t>10.56.154.192/29</t>
+  </si>
+  <si>
+    <t>10.56.154.200/29</t>
+  </si>
+  <si>
+    <t>10.56.154.224/29</t>
+  </si>
+  <si>
+    <t>10.56.154.232/29</t>
+  </si>
+  <si>
+    <t>10.56.155.128/29</t>
+  </si>
+  <si>
+    <t>10.56.155.136/29</t>
+  </si>
+  <si>
+    <t>10.56.156.104/29</t>
+  </si>
+  <si>
+    <t>10.56.156.96/29</t>
+  </si>
+  <si>
+    <t>10.56.157.16/29</t>
+  </si>
+  <si>
+    <t>10.56.160.112/29</t>
+  </si>
+  <si>
+    <t>10.56.160.120/29</t>
+  </si>
+  <si>
+    <t>10.56.255.192/29</t>
+  </si>
+  <si>
+    <t>10.56.255.48/29</t>
+  </si>
+  <si>
+    <t>10.56.255.56/29</t>
+  </si>
+  <si>
+    <t>10.56.255.64/29</t>
+  </si>
+  <si>
+    <t>10.56.255.72/29</t>
+  </si>
+  <si>
+    <t>10.56.57.112/30</t>
+  </si>
+  <si>
+    <t>10.56.96.0/24</t>
+  </si>
+  <si>
+    <t>10.56.97.0/24</t>
+  </si>
+  <si>
+    <t>10.7.0.0/22</t>
+  </si>
+  <si>
+    <t>10.84.28.0/22</t>
+  </si>
+  <si>
+    <t>10.84.88.0/22</t>
+  </si>
+  <si>
+    <t>10.86.0.0/16</t>
+  </si>
+  <si>
+    <t>10.87.0.0/17</t>
+  </si>
+  <si>
+    <t>10.87.128.0/18</t>
+  </si>
+  <si>
+    <t>10.235.0.0/16</t>
+  </si>
+  <si>
+    <t>10.53.0.0/16</t>
+  </si>
+  <si>
+    <t>10.86.0.0/15</t>
+  </si>
+  <si>
+    <t>nok_10.122.92.0_23_kautoho</t>
+  </si>
+  <si>
+    <t>nok_10.232.0.0_16_brandallocation</t>
+  </si>
+  <si>
+    <t>nok_10.233.0.0_18_brandallocation</t>
+  </si>
+  <si>
+    <t>nok_10.233.64.0_18_brandallocation</t>
+  </si>
+  <si>
+    <t>nok_10.53.0.0_21_nzho</t>
+  </si>
+  <si>
+    <t>nok_10.87.255.0_24_kautoho</t>
+  </si>
+  <si>
+    <t>nok_172.21.18.0_24_kmartvrf</t>
+  </si>
+  <si>
+    <t>nok_172.23.254.0_23_kmartho</t>
+  </si>
+  <si>
+    <t>nok_172.31.0.0_16_kmartho</t>
+  </si>
+  <si>
+    <t>nok_192.168.114.0_24_kmarttoowongso</t>
+  </si>
+  <si>
+    <t>nok_192.168.115.0_24_portadelaideso</t>
+  </si>
+  <si>
+    <t>nok_10.233.129.0_24_kmart_vpn1</t>
+  </si>
+  <si>
+    <t>nok_10.233.130.0_24_kmart_vpn2</t>
+  </si>
+  <si>
+    <t>nok_10.233.144.0_22_kmart_vpn3</t>
+  </si>
+  <si>
+    <t>nok_10.162.12.0_23_arndellparkdc</t>
+  </si>
+  <si>
+    <t>nok_10.162.60.0_23_huntingwooddc</t>
+  </si>
+  <si>
+    <t>nok_10.162.62.0_23_huntingwooddc</t>
+  </si>
+  <si>
+    <t>nok_10.162.64.0_23_huntingwooddc</t>
+  </si>
+  <si>
+    <t>nok_10.163.10.0_23_braesidedc</t>
+  </si>
+  <si>
+    <t>nok_10.163.2.0_23_hoppersdc</t>
+  </si>
+  <si>
+    <t>nok_10.163.4.0_23_braesidedc</t>
+  </si>
+  <si>
+    <t>nok_10.163.8.0_23_hoppersdc</t>
+  </si>
+  <si>
+    <t>nok_10.164.2.0_23_hendra</t>
+  </si>
+  <si>
+    <t>nok_10.164.24.0_23_hendra</t>
+  </si>
+  <si>
+    <t>nok_10.162.252.5_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.251.10_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.251.13_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.251.14_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.251.17_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.251.18_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.251.6_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.164.251.10_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.164.251.5_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.164.251.6_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.204.251.37_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.204.251.38_32_stores</t>
+  </si>
+  <si>
+    <t>nok_10.117.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.118.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.119.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.122.0.0_18_stores</t>
+  </si>
+  <si>
+    <t>nok_10.122.64.0_20_stores</t>
+  </si>
+  <si>
+    <t>nok_10.122.80.0_21_stores</t>
+  </si>
+  <si>
+    <t>nok_10.122.88.0_22_stores</t>
+  </si>
+  <si>
+    <t>nok_10.122.94.0_23_stores</t>
+  </si>
+  <si>
+    <t>nok_10.122.96.0_19_stores</t>
+  </si>
+  <si>
+    <t>nok_10.123.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.124.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.125.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.162.243.72_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.162.251.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.163.253.0_30_stores</t>
+  </si>
+  <si>
+    <t>nok_10.164.245.64_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.164.251.12_30_stores</t>
+  </si>
+  <si>
+    <t>nok_10.165.251.4_30_stores</t>
+  </si>
+  <si>
+    <t>nok_10.203.22.16_28_stores</t>
+  </si>
+  <si>
+    <t>nok_10.203.25.240_28_stores</t>
+  </si>
+  <si>
+    <t>nok_10.204.251.12_30_stores</t>
+  </si>
+  <si>
+    <t>nok_10.204.251.8_30_stores</t>
+  </si>
+  <si>
+    <t>nok_10.204.4.0_23_stores</t>
+  </si>
+  <si>
+    <t>nok_10.204.6.0_23_stores</t>
+  </si>
+  <si>
+    <t>nok_10.232.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.233.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.43.192.0_18_stores</t>
+  </si>
+  <si>
+    <t>nok_10.53.16.0_20_stores</t>
+  </si>
+  <si>
+    <t>nok_10.53.255.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.53.32.0_19_stores</t>
+  </si>
+  <si>
+    <t>nok_10.53.64.0_18_stores</t>
+  </si>
+  <si>
+    <t>nok_10.55.10.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.55.11.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.100.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.101.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.104.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.108.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.110.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.112.0_20_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.152.144_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.152.152_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.152.192_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.152.200_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.154.192_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.154.200_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.154.224_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.154.232_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.155.128_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.155.136_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.156.104_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.156.96_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.157.16_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.160.112_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.160.120_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.255.192_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.255.48_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.255.56_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.255.64_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.255.72_29_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.57.112_30_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.96.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.56.97.0_24_stores</t>
+  </si>
+  <si>
+    <t>nok_10.7.0.0_22_stores</t>
+  </si>
+  <si>
+    <t>nok_10.84.28.0_22_stores</t>
+  </si>
+  <si>
+    <t>nok_10.84.88.0_22_stores</t>
+  </si>
+  <si>
+    <t>nok_10.86.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.87.0.0_17_stores</t>
+  </si>
+  <si>
+    <t>nok_10.87.128.0_18_stores</t>
+  </si>
+  <si>
+    <t>nok_10.235.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.53.0.0_16_stores</t>
+  </si>
+  <si>
+    <t>nok_10.86.0.0_15_stores</t>
+  </si>
+  <si>
+    <t>grp_kmart_offices</t>
+  </si>
+  <si>
+    <t>'nok_10.122.92.0_23_kautoho', 'nok_10.232.0.0_16_brandallocation'</t>
   </si>
 </sst>
 </file>
@@ -362,13 +815,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,12 +1141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
     <col min="8" max="8" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,51 +1156,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -753,14 +1210,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="34.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -774,242 +1232,858 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1019,16 +2093,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1036,23 +2110,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>242</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1080,18 +2146,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1234</v>
@@ -1099,10 +2165,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1234</v>
@@ -1110,10 +2176,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1456</v>
@@ -1121,13 +2187,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +2206,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,15 +2220,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\pano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B638D0C9-0A48-4A30-992B-F98FFEC2AE2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7BCBD-1B74-435C-9AB8-8398C0A4BBC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
@@ -109,12 +109,6 @@
     <t>ifw_coles_1</t>
   </si>
   <si>
-    <t>ifw_internal_1</t>
-  </si>
-  <si>
-    <t>ifw_interbrand_1</t>
-  </si>
-  <si>
     <t>test_source</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>tag_name</t>
+  </si>
+  <si>
+    <t>ifw_interbrand_1, ifw_sslvpn_1</t>
+  </si>
+  <si>
+    <t>ifw_internal_1, ifw_sslvpn_1</t>
   </si>
 </sst>
 </file>
@@ -558,18 +558,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -615,22 +615,22 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +662,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -737,34 +737,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +852,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\pano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7BCBD-1B74-435C-9AB8-8398C0A4BBC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD304A-FB5E-4A7C-A710-E2FBC5E63C4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -100,15 +100,18 @@
     <t>172.22.150.131</t>
   </si>
   <si>
-    <t>Policy ID 5.4.5.130 on coles side</t>
-  </si>
-  <si>
     <t>test added by Ansible</t>
   </si>
   <si>
     <t>ifw_coles_1</t>
   </si>
   <si>
+    <t>ifw_internal_1</t>
+  </si>
+  <si>
+    <t>ifw_interbrand_1</t>
+  </si>
+  <si>
     <t>test_source</t>
   </si>
   <si>
@@ -139,27 +142,9 @@
     <t>dest_group1</t>
   </si>
   <si>
-    <t>'test_source', 'Test_source_1'</t>
-  </si>
-  <si>
-    <t>'test_dest_2', 'test_dest_3'</t>
-  </si>
-  <si>
-    <t>'Test_source_2'</t>
-  </si>
-  <si>
     <t>'test_dest_1'</t>
   </si>
   <si>
-    <t>source_group, source_group1</t>
-  </si>
-  <si>
-    <t>dest_group, dest_group1</t>
-  </si>
-  <si>
-    <t>ssl, web-browsing</t>
-  </si>
-  <si>
     <t>service_group1</t>
   </si>
   <si>
@@ -169,10 +154,13 @@
     <t>tag_name</t>
   </si>
   <si>
-    <t>ifw_interbrand_1, ifw_sslvpn_1</t>
-  </si>
-  <si>
-    <t>ifw_internal_1, ifw_sslvpn_1</t>
+    <t>'test_source','Test_source_1'</t>
+  </si>
+  <si>
+    <t>'test_source_2'</t>
+  </si>
+  <si>
+    <t>'test_dest_2','test-dest_3'</t>
   </si>
 </sst>
 </file>
@@ -558,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -606,32 +594,19 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,7 +637,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -670,7 +645,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -678,7 +653,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -686,7 +661,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -694,7 +669,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -702,7 +677,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -715,16 +690,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,35 +712,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,10 +830,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\pano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD304A-FB5E-4A7C-A710-E2FBC5E63C4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40610C64-C860-4B79-8DAC-1B16EB1A4C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="FirewallPolicies" sheetId="2" r:id="rId1"/>
-    <sheet name="NetworkAddresses" sheetId="1" r:id="rId2"/>
-    <sheet name="NetworkObjects" sheetId="4" r:id="rId3"/>
-    <sheet name="Services" sheetId="5" r:id="rId4"/>
-    <sheet name="ServiceGroups" sheetId="6" r:id="rId5"/>
+    <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
+    <sheet name="FirewallPolicies_prerule" sheetId="7" r:id="rId2"/>
+    <sheet name="NetworkAddresses" sheetId="1" r:id="rId3"/>
+    <sheet name="NetworkObjects" sheetId="4" r:id="rId4"/>
+    <sheet name="Services" sheetId="5" r:id="rId5"/>
+    <sheet name="ServiceGroups" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -88,9 +89,6 @@
     <t>192.168.96.52</t>
   </si>
   <si>
-    <t>172.22.150.128</t>
-  </si>
-  <si>
     <t>172.22.150.129</t>
   </si>
   <si>
@@ -115,12 +113,6 @@
     <t>test_source</t>
   </si>
   <si>
-    <t>Test_source_1</t>
-  </si>
-  <si>
-    <t>Test_source_2</t>
-  </si>
-  <si>
     <t>test_dest_1</t>
   </si>
   <si>
@@ -151,16 +143,106 @@
     <t>tcp_444, udp_555</t>
   </si>
   <si>
-    <t>tag_name</t>
-  </si>
-  <si>
-    <t>'test_source','Test_source_1'</t>
-  </si>
-  <si>
     <t>'test_source_2'</t>
   </si>
   <si>
-    <t>'test_dest_2','test-dest_3'</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>interzone</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>spg_au_dc_strict</t>
+  </si>
+  <si>
+    <t>SourceUser</t>
+  </si>
+  <si>
+    <t>HIPProfile</t>
+  </si>
+  <si>
+    <t>URLCategory</t>
+  </si>
+  <si>
+    <t>SecurityProfile</t>
+  </si>
+  <si>
+    <t>PostRule</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>LogStart</t>
+  </si>
+  <si>
+    <t>LogEnd</t>
+  </si>
+  <si>
+    <t>LogSettings</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>test, test2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>Devicegroup</t>
+  </si>
+  <si>
+    <t>Existing_rule</t>
+  </si>
+  <si>
+    <t>172.22.150.128-172.22.150.192</t>
+  </si>
+  <si>
+    <t>test_source_1</t>
+  </si>
+  <si>
+    <t>test_source_2</t>
+  </si>
+  <si>
+    <t>'test_source','test_source_1'</t>
+  </si>
+  <si>
+    <t>'test_dest_2','test_dest_3'</t>
+  </si>
+  <si>
+    <t>tcp_9999</t>
+  </si>
+  <si>
+    <t>service_group2</t>
   </si>
 </sst>
 </file>
@@ -216,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -230,6 +312,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,143 +629,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2"/>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16442-E7CB-4AA7-B35A-4998D89832EC}">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -689,60 +906,245 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
   </sheetData>
@@ -751,12 +1153,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0D103-70F1-467C-A4A0-6C4FAD2E3DAB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,9 +1166,12 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -776,8 +1181,17 @@
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A3" si="0">_xlfn.CONCAT(LOWER(B2),"_",C2)</f>
         <v>tcp_444</v>
@@ -788,8 +1202,17 @@
       <c r="C2">
         <v>444</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>udp_555</v>
@@ -799,6 +1222,35 @@
       </c>
       <c r="C3">
         <v>555</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>9999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -806,34 +1258,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6472A306-4237-4364-B563-EDDE513583A6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40610C64-C860-4B79-8DAC-1B16EB1A4C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A135081-7568-4FD9-86BC-D5D186363795}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -188,9 +188,6 @@
     <t>SecurityProfile</t>
   </si>
   <si>
-    <t>PostRule</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>service_group2</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,9 +653,9 @@
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -709,24 +709,21 @@
         <v>41</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -741,28 +738,28 @@
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>44</v>
@@ -777,9 +774,6 @@
         <v>1</v>
       </c>
       <c r="T2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -793,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16442-E7CB-4AA7-B35A-4998D89832EC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -835,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -883,21 +877,21 @@
         <v>36</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -910,132 +904,133 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1048,104 +1043,104 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,100 +1152,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0D103-70F1-467C-A4A0-6C4FAD2E3DAB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A3" si="0">_xlfn.CONCAT(LOWER(B2),"_",C2)</f>
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B3" si="0">_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
         <v>tcp_444</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>444</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
       <c r="E2" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>udp_555</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>555</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" t="s">
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9999</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1262,50 +1257,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6472A306-4237-4364-B563-EDDE513583A6}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1316,13 +1311,13 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A135081-7568-4FD9-86BC-D5D186363795}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B915D-BCC2-43CA-A978-B0AA136C9863}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>LogEnd</t>
   </si>
   <si>
-    <t>LogSettings</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Devicegroup</t>
   </si>
   <si>
-    <t>Existing_rule</t>
-  </si>
-  <si>
     <t>172.22.150.128-172.22.150.192</t>
   </si>
   <si>
@@ -242,7 +236,25 @@
     <t>service_group2</t>
   </si>
   <si>
-    <t>delete</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ExistingRule</t>
+  </si>
+  <si>
+    <t>LogSetting</t>
+  </si>
+  <si>
+    <t>lf_au_dc_panorama</t>
+  </si>
+  <si>
+    <t>Deny</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -631,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -664,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -717,7 +729,7 @@
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -741,10 +753,10 @@
         <v>51</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
@@ -787,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16442-E7CB-4AA7-B35A-4998D89832EC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,12 +827,12 @@
     <col min="20" max="20" width="16.109375" customWidth="1"/>
     <col min="21" max="21" width="15.44140625" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -829,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -877,7 +889,7 @@
         <v>36</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>52</v>
@@ -886,12 +898,78 @@
         <v>53</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +982,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -925,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -933,7 +1011,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -950,10 +1028,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -967,13 +1045,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -984,7 +1062,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1001,7 +1079,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1018,7 +1096,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1043,7 +1121,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1134,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1065,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1073,13 +1151,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -1090,7 +1168,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -1107,7 +1185,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1124,13 +1202,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -1153,7 +1231,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1246,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1180,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -1188,7 +1266,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B3" si="0">_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
@@ -1209,7 +1287,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -1230,10 +1308,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1258,7 +1336,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1280,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -1288,7 +1366,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -1305,13 +1383,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B915D-BCC2-43CA-A978-B0AA136C9863}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03526DAD-62F1-4B77-93F8-9E7A4321FCCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -245,16 +245,13 @@
     <t>LogSetting</t>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>lf_au_dc_panorama</t>
   </si>
   <si>
-    <t>Deny</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>update</t>
+    <t>adult</t>
   </si>
 </sst>
 </file>
@@ -643,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -765,7 +762,7 @@
         <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>51</v>
@@ -799,14 +796,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16442-E7CB-4AA7-B35A-4998D89832EC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
@@ -902,9 +899,6 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -957,11 +951,9 @@
         <v>66</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T2" s="1"/>
       <c r="U2" s="1" t="b">
         <v>1</v>
       </c>
@@ -969,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03526DAD-62F1-4B77-93F8-9E7A4321FCCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932939D-20BB-400E-8499-C1C2E47C8264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="482">
   <si>
     <t>Name</t>
   </si>
@@ -110,42 +110,6 @@
     <t>ifw_interbrand_1</t>
   </si>
   <si>
-    <t>test_source</t>
-  </si>
-  <si>
-    <t>test_dest_1</t>
-  </si>
-  <si>
-    <t>test_dest_2</t>
-  </si>
-  <si>
-    <t>test_dest_3</t>
-  </si>
-  <si>
-    <t>source_group</t>
-  </si>
-  <si>
-    <t>source_group1</t>
-  </si>
-  <si>
-    <t>dest_group</t>
-  </si>
-  <si>
-    <t>dest_group1</t>
-  </si>
-  <si>
-    <t>'test_dest_1'</t>
-  </si>
-  <si>
-    <t>service_group1</t>
-  </si>
-  <si>
-    <t>tcp_444, udp_555</t>
-  </si>
-  <si>
-    <t>'test_source_2'</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -215,27 +179,6 @@
     <t>Devicegroup</t>
   </si>
   <si>
-    <t>172.22.150.128-172.22.150.192</t>
-  </si>
-  <si>
-    <t>test_source_1</t>
-  </si>
-  <si>
-    <t>test_source_2</t>
-  </si>
-  <si>
-    <t>'test_source','test_source_1'</t>
-  </si>
-  <si>
-    <t>'test_dest_2','test_dest_3'</t>
-  </si>
-  <si>
-    <t>tcp_9999</t>
-  </si>
-  <si>
-    <t>service_group2</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -251,7 +194,1296 @@
     <t>lf_au_dc_panorama</t>
   </si>
   <si>
-    <t>adult</t>
+    <t>Coles_windows_ldap</t>
+  </si>
+  <si>
+    <t>Coles_active_directory</t>
+  </si>
+  <si>
+    <t>Coles_CMLCONNECT_1</t>
+  </si>
+  <si>
+    <t>Coles_CMLCONNECT_2</t>
+  </si>
+  <si>
+    <t>Coles_dial_time_gateway</t>
+  </si>
+  <si>
+    <t>Coles_DNS</t>
+  </si>
+  <si>
+    <t>Coles_HP_NNM</t>
+  </si>
+  <si>
+    <t>Coles_idm</t>
+  </si>
+  <si>
+    <t>Coles_INGENICO_TMS</t>
+  </si>
+  <si>
+    <t>Coles_management</t>
+  </si>
+  <si>
+    <t>Coles_netdev</t>
+  </si>
+  <si>
+    <t>Coles_ntp</t>
+  </si>
+  <si>
+    <t>Coles_owa</t>
+  </si>
+  <si>
+    <t>Coles_proxy</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.130, 5.4.5.131, 5.4.5.132, 5.4.5.133 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.137, 5.4.5.139 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.186 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.188 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.190 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.95, 5.4.5.238 and 5.4.5.677 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.265 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.187 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.729 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.214 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.438 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.680 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.273, 5.4.5.274 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.709, 5.4.5.710 on Coles side</t>
+  </si>
+  <si>
+    <t>ifw_internal_1, ifw_sslvpn_1</t>
+  </si>
+  <si>
+    <t>nok_10.232.0.0-16_BrandAllocation</t>
+  </si>
+  <si>
+    <t>ifw-coles_1</t>
+  </si>
+  <si>
+    <t>grp_intranet_portal</t>
+  </si>
+  <si>
+    <t>hoc_172.25.151.51_utnnm, hoc_172.25.151.52_utnnm</t>
+  </si>
+  <si>
+    <t>hoc_172.27.255.84_idmutils</t>
+  </si>
+  <si>
+    <t>grp_coles_intsmtp</t>
+  </si>
+  <si>
+    <t>grp_coles_serverfarm</t>
+  </si>
+  <si>
+    <t>noc_172.28.0.0_coles_dev</t>
+  </si>
+  <si>
+    <t>hoc_192.168.180.50_ntp1, hoc_192.168.180.51_ntp2</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.159_coleswebmail, hoc_172.27.0.135_webmail.cmltd.net.au, hoc_172.27.0.136_as3g.coles.com.au</t>
+  </si>
+  <si>
+    <t>grp_proxy-int_intfc</t>
+  </si>
+  <si>
+    <t>tcp_464, udp_123, udp_389, udp_464, udp_636, udp_88, udp_138, tcp_135, tcp_139, tcp_3268, tcp_445, tcp_88</t>
+  </si>
+  <si>
+    <t>tcp_123, tcp_135, tcp_137, tcp_139, tcp_3268, tcp_3269, tcp_389, tcp_445, tcp_53, tcp_636, tcp_88, tcp_464, tcp_9389, tcp_24158, udp_123, udp_137, udp_138, udp_53, udp_636, udp_389, udp_445, udp_464, udp_88, tcp_1025, tcp_59001, tcp_80</t>
+  </si>
+  <si>
+    <t>tcp_7443</t>
+  </si>
+  <si>
+    <t>tcp_443, tcp_80</t>
+  </si>
+  <si>
+    <t>tcp_135, tcp_139, tcp_1433, tcp_2107</t>
+  </si>
+  <si>
+    <t>tcp_53, udp_53</t>
+  </si>
+  <si>
+    <t>tcp_2953, tcp_2954, tcp_3443, tcp_7510, udp_162</t>
+  </si>
+  <si>
+    <t>tcp_443</t>
+  </si>
+  <si>
+    <t>tcp_443, tcp_80, tcp_7000</t>
+  </si>
+  <si>
+    <t>tcp_22, tcp_23, tcp_3389, tcp_443, tcp_445, tcp_80</t>
+  </si>
+  <si>
+    <t>udp_123</t>
+  </si>
+  <si>
+    <t>tcp_80, tcp_443</t>
+  </si>
+  <si>
+    <t>tcp_21, tcp_8080</t>
+  </si>
+  <si>
+    <t>hoc_172.22.71.31_eds_test</t>
+  </si>
+  <si>
+    <t>hoc_192.168.96.52_TMS_Prod</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.128_dpx04db01</t>
+  </si>
+  <si>
+    <t>172.22.150.128</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.129_dpx04db02</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.130_dpx04db03</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.131_dpx04db04</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.160_ddx02db01</t>
+  </si>
+  <si>
+    <t>172.22.150.160</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.161_ddx02db02</t>
+  </si>
+  <si>
+    <t>172.22.150.161</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.162_ddx02db03</t>
+  </si>
+  <si>
+    <t>172.22.150.162</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.163_ddx02db04</t>
+  </si>
+  <si>
+    <t>172.22.150.163</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.20_dpx05db01</t>
+  </si>
+  <si>
+    <t>172.22.150.20</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.21_dpx05db02</t>
+  </si>
+  <si>
+    <t>172.22.150.21</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.22_dpx05db03</t>
+  </si>
+  <si>
+    <t>172.22.150.23</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.23_dpx05db04</t>
+  </si>
+  <si>
+    <t>172.22.150.22</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.100_dpx0401-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.100</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.101_dpx0402-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.101</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.102_dpx0403-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.102</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.103_dpx0404-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.103</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.104_dpx04-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.104</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.105_dpx04-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.105</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.106_dpx04-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.106</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.200_ddx0201-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.200</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.201_ddx0202-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.201</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.202_ddx0203-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.202</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.203_ddx0204-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.203</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.204_ddx02-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.204</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.205_ddx02-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.205</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.206_ddx02-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.206</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.46_udixos1</t>
+  </si>
+  <si>
+    <t>172.22.160.46</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.47_utsap1</t>
+  </si>
+  <si>
+    <t>172.22.160.47</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.49_sh0301ec</t>
+  </si>
+  <si>
+    <t>172.22.160.49</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.94_lpunixweb03</t>
+  </si>
+  <si>
+    <t>172.22.160.94</t>
+  </si>
+  <si>
+    <t>172.22.161.23</t>
+  </si>
+  <si>
+    <t>hoc_172.22.161.72</t>
+  </si>
+  <si>
+    <t>172.22.161.72</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.61_APCDCO</t>
+  </si>
+  <si>
+    <t>172.22.162.61</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.68_dpx0501-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.68</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.69_dpx0502-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.69</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.70_dpx0503-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.70</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.71_dpx0504-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.71</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.72_dpx05-scan</t>
+  </si>
+  <si>
+    <t>172.22.162.72</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.73_dpx05-scan</t>
+  </si>
+  <si>
+    <t>172.22.162.73</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.74_dpx05-scan</t>
+  </si>
+  <si>
+    <t>172.22.162.74</t>
+  </si>
+  <si>
+    <t>hoc_172.22.29.123_WPEPS02VM</t>
+  </si>
+  <si>
+    <t>172.22.29.123</t>
+  </si>
+  <si>
+    <t>hoc_172.22.29.67_WDEPS01VM</t>
+  </si>
+  <si>
+    <t>172.22.31.133</t>
+  </si>
+  <si>
+    <t>hoc_172.22.31.133_gmpgw10</t>
+  </si>
+  <si>
+    <t>172.22.29.67</t>
+  </si>
+  <si>
+    <t>hoc_172.22.31.145_WPEPS01VM</t>
+  </si>
+  <si>
+    <t>172.22.31.145</t>
+  </si>
+  <si>
+    <t>hoc_172.22.31.181_upsap3</t>
+  </si>
+  <si>
+    <t>172.22.31.181</t>
+  </si>
+  <si>
+    <t>hoc_172.22.4.71_ZSTLLTCM601</t>
+  </si>
+  <si>
+    <t>172.22.4.71</t>
+  </si>
+  <si>
+    <t>hoc_172.22.43.27_dsmprd20</t>
+  </si>
+  <si>
+    <t>172.22.43.27</t>
+  </si>
+  <si>
+    <t>hoc_172.22.43.34_uprsprt02</t>
+  </si>
+  <si>
+    <t>172.22.43.34</t>
+  </si>
+  <si>
+    <t>hoc_172.22.43.41_gmpgw20</t>
+  </si>
+  <si>
+    <t>172.22.43.41</t>
+  </si>
+  <si>
+    <t>hoc_172.22.61.100_upsap1</t>
+  </si>
+  <si>
+    <t>172.22.61.100</t>
+  </si>
+  <si>
+    <t>hoc_172.22.71.48_wpsapepprd02</t>
+  </si>
+  <si>
+    <t>172.22.71.48</t>
+  </si>
+  <si>
+    <t>hoc_172.22.71.69_wpsapepuat02</t>
+  </si>
+  <si>
+    <t>172.22.71.69</t>
+  </si>
+  <si>
+    <t>hoc_172.25.151.51_utnnm</t>
+  </si>
+  <si>
+    <t>172.25.151.51</t>
+  </si>
+  <si>
+    <t>hoc_172.25.151.52_utnnm</t>
+  </si>
+  <si>
+    <t>172.25.151.52</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.73_lpitmrtems4</t>
+  </si>
+  <si>
+    <t>172.25.159.73</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.74_lpitmrtems1</t>
+  </si>
+  <si>
+    <t>172.25.159.74</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.79_lpitmrtems6</t>
+  </si>
+  <si>
+    <t>172.25.159.79</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.99_lpunixweb01</t>
+  </si>
+  <si>
+    <t>172.25.159.99</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.216_scripts.CMLCONNECT.ORG</t>
+  </si>
+  <si>
+    <t>172.25.163.216</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.224_lpitmrtems5</t>
+  </si>
+  <si>
+    <t>172.25.163.224</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.66_wpdtimedev01vm</t>
+  </si>
+  <si>
+    <t>172.25.163.66</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.90_WPDTIME01VM</t>
+  </si>
+  <si>
+    <t>172.25.163.90</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.92_WPDTIME02VM</t>
+  </si>
+  <si>
+    <t>172.25.163.92</t>
+  </si>
+  <si>
+    <t>hoc_172.25.174.79_WPSQL14E</t>
+  </si>
+  <si>
+    <t>172.25.174.79</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.38_utmq1</t>
+  </si>
+  <si>
+    <t>172.25.181.38</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.40_utmq2</t>
+  </si>
+  <si>
+    <t>172.25.181.40</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.22_portalsvt</t>
+  </si>
+  <si>
+    <t>172.25.182.22</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.24_connecttest</t>
+  </si>
+  <si>
+    <t>172.25.182.24</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.38_connectuat</t>
+  </si>
+  <si>
+    <t>172.25.182.38</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.39_connectuat2</t>
+  </si>
+  <si>
+    <t>172.25.182.39</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.151_mercuryam-sys-new</t>
+  </si>
+  <si>
+    <t>172.25.184.151</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.154_wfctrm21</t>
+  </si>
+  <si>
+    <t>172.25.184.154</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.159_coleswebmail</t>
+  </si>
+  <si>
+    <t>172.25.184.159</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.228_connectportal</t>
+  </si>
+  <si>
+    <t>172.25.184.228</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.113_wpclsql10e</t>
+  </si>
+  <si>
+    <t>172.25.191.113</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.139_wpsapepdev01</t>
+  </si>
+  <si>
+    <t>172.25.191.139</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.140_wpsapepuat01</t>
+  </si>
+  <si>
+    <t>172.25.191.140</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.152_wpclsql11e</t>
+  </si>
+  <si>
+    <t>172.25.191.152</t>
+  </si>
+  <si>
+    <t>hoc_172.25.29.148_wpsql01</t>
+  </si>
+  <si>
+    <t>172.25.29.148</t>
+  </si>
+  <si>
+    <t>hoc_172.25.31.206_Uqsap3</t>
+  </si>
+  <si>
+    <t>172.25.31.206</t>
+  </si>
+  <si>
+    <t>hoc_172.25.31.50_ironbark</t>
+  </si>
+  <si>
+    <t>172.25.31.50</t>
+  </si>
+  <si>
+    <t>hoc_172.25.31.55_spruce</t>
+  </si>
+  <si>
+    <t>172.25.31.55</t>
+  </si>
+  <si>
+    <t>hoc_172.25.41.73_wpdms02</t>
+  </si>
+  <si>
+    <t>172.25.41.73</t>
+  </si>
+  <si>
+    <t>hoc_172.25.41.99_wpwins09vm</t>
+  </si>
+  <si>
+    <t>172.25.41.99</t>
+  </si>
+  <si>
+    <t>hoc_172.25.42.96_wpsapeptst01</t>
+  </si>
+  <si>
+    <t>172.25.42.96</t>
+  </si>
+  <si>
+    <t>hoc_172.25.43.35_uprsprt03</t>
+  </si>
+  <si>
+    <t>172.25.43.35</t>
+  </si>
+  <si>
+    <t>hoc_172.25.52.36_tivtest10</t>
+  </si>
+  <si>
+    <t>172.25.52.36</t>
+  </si>
+  <si>
+    <t>hoc_172.25.52.39_torgate10-g0</t>
+  </si>
+  <si>
+    <t>172.25.52.39</t>
+  </si>
+  <si>
+    <t>hoc_172.25.61.114_uqsap1</t>
+  </si>
+  <si>
+    <t>172.25.61.114</t>
+  </si>
+  <si>
+    <t>hoc_172.25.71.36_trm-fllweb-22</t>
+  </si>
+  <si>
+    <t>172.25.71.36</t>
+  </si>
+  <si>
+    <t>hoc_172.25.71.56_wtsql14</t>
+  </si>
+  <si>
+    <t>172.25.71.56</t>
+  </si>
+  <si>
+    <t>hoc_172.27.0.135_webmail.cmltd.net.au</t>
+  </si>
+  <si>
+    <t>172.27.0.135</t>
+  </si>
+  <si>
+    <t>hoc_172.27.0.136_as3g.coles.com.au</t>
+  </si>
+  <si>
+    <t>172.27.0.136</t>
+  </si>
+  <si>
+    <t>hoc_172.27.0.72_passwordreset</t>
+  </si>
+  <si>
+    <t>172.27.0.72</t>
+  </si>
+  <si>
+    <t>hoc_172.27.1.137_AppCentre</t>
+  </si>
+  <si>
+    <t>172.27.1.137</t>
+  </si>
+  <si>
+    <t>hoc_172.27.16.11_portal</t>
+  </si>
+  <si>
+    <t>172.27.16.11</t>
+  </si>
+  <si>
+    <t>hoc_172.27.16.35_login-iam-prd</t>
+  </si>
+  <si>
+    <t>172.27.16.35</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.11_tmpportalsvt</t>
+  </si>
+  <si>
+    <t>172.27.17.11</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.23_login-iam-test</t>
+  </si>
+  <si>
+    <t>172.27.17.23</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.33_login-iam</t>
+  </si>
+  <si>
+    <t>172.27.17.33</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.39_login-iam-dev</t>
+  </si>
+  <si>
+    <t>172.27.17.39</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.91_portaltest</t>
+  </si>
+  <si>
+    <t>172.27.17.91</t>
+  </si>
+  <si>
+    <t>172.27.255.84</t>
+  </si>
+  <si>
+    <t>hoc_172.27.3.207_connectuat</t>
+  </si>
+  <si>
+    <t>172.27.3.207</t>
+  </si>
+  <si>
+    <t>hoc_172.27.34.7_prods-eailog</t>
+  </si>
+  <si>
+    <t>172.27.34.7</t>
+  </si>
+  <si>
+    <t>hoc_172.28.139.227_portaldev</t>
+  </si>
+  <si>
+    <t>172.28.139.227</t>
+  </si>
+  <si>
+    <t>hoc_192.168.173.111_lpextdns1n2</t>
+  </si>
+  <si>
+    <t>192.168.173.111</t>
+  </si>
+  <si>
+    <t>hoc_192.168.173.112_lpextdns2n2</t>
+  </si>
+  <si>
+    <t>192.168.173.112</t>
+  </si>
+  <si>
+    <t>hoc_192.168.180.50_ntp1</t>
+  </si>
+  <si>
+    <t>192.168.180.50</t>
+  </si>
+  <si>
+    <t>hoc_192.168.180.51_ntp2</t>
+  </si>
+  <si>
+    <t>192.168.180.51</t>
+  </si>
+  <si>
+    <t>hoc_192.168.241.87_Ingenico_Kidman</t>
+  </si>
+  <si>
+    <t>192.168.241.87</t>
+  </si>
+  <si>
+    <t>hoc_192.168.98.23_saprp100</t>
+  </si>
+  <si>
+    <t>192.168.98.23</t>
+  </si>
+  <si>
+    <t>hoc_192.168.99.26_saprq300</t>
+  </si>
+  <si>
+    <t>192.168.99.26</t>
+  </si>
+  <si>
+    <t>hoc_172.25.12.21_wpad01</t>
+  </si>
+  <si>
+    <t>172.25.12.21</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.37_utmq1s</t>
+  </si>
+  <si>
+    <t>172.25.181.37</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.39_utmq2s</t>
+  </si>
+  <si>
+    <t>172.25.181.39</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.161_CitrixAppcentre</t>
+  </si>
+  <si>
+    <t>172.25.184.161</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.226_portal_cmlconnect_org</t>
+  </si>
+  <si>
+    <t>172.25.184.226</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.228_portal_cmlconnect_org_test</t>
+  </si>
+  <si>
+    <t>hoc_172.25.29.153_wpsql06</t>
+  </si>
+  <si>
+    <t>172.25.29.153</t>
+  </si>
+  <si>
+    <t>noc_172.22.0.0-16_Tallyho_serverfarm</t>
+  </si>
+  <si>
+    <t>172.22.0.0/16</t>
+  </si>
+  <si>
+    <t>noc_172.25.0.0-16_Tooronga_serverfarm</t>
+  </si>
+  <si>
+    <t>172.25.0.0/16</t>
+  </si>
+  <si>
+    <t>noc_172.26.0.0-16_Tooronga</t>
+  </si>
+  <si>
+    <t>172.26.0.0/16</t>
+  </si>
+  <si>
+    <t>172.28.0.0</t>
+  </si>
+  <si>
+    <t>noc_172.22.61.243_utsap1</t>
+  </si>
+  <si>
+    <t>172.22.61.243</t>
+  </si>
+  <si>
+    <t>noc_172.22.61.30_sh0301ec</t>
+  </si>
+  <si>
+    <t>172.22.61.30</t>
+  </si>
+  <si>
+    <t>noc_192.168.11.0-24_loopback</t>
+  </si>
+  <si>
+    <t>192.168.11.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.208.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.208.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.219.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.219.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.220.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.220.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.221.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.221.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.222.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.222.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.224.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.224.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.225.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.225.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.226.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.226.0/24</t>
+  </si>
+  <si>
+    <t>3000-5000</t>
+  </si>
+  <si>
+    <t>4457-4462</t>
+  </si>
+  <si>
+    <t>gok_Kmart_all</t>
+  </si>
+  <si>
+    <t>gok_kmart_dcs,gok_kmart_offices, gok_kmart_sslvpnpools, gok_core_stores</t>
+  </si>
+  <si>
+    <t>goc_windows_servers_ldap</t>
+  </si>
+  <si>
+    <t>goc_coles_ad</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.216_scripts.CMLCONNECT.ORG
+hoc_172.25.184.226_portal_cmlconnect_org</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.66_wpdtimedev01vm, hoc_172.25.163.90_WPDTIME01VM, hoc_172.25.163.92_WPDTIME02VM, hoc_172.25.174.79_WPSQL14E, hoc_172.25.191.113_wpclsql10e, hoc_172.25.191.152_wpclsql11e, hoc_172.25.29.148_wpsql01, hoc_172.25.31.50_ironbark, hoc_172.25.31.55_spruce, hoc_172.25.41.73_wpdms02, hoc_172.25.71.56_wtsql14, hoc_172.25.29.153_wpsql06</t>
+  </si>
+  <si>
+    <t>goc_wins, goc_internal_dns, hoc_172.25.12.21_wpad01,hoc_192.168.173.111_lpextdns1n2, hoc_192.168.173.112_lpextdns2n2</t>
+  </si>
+  <si>
+    <t>goc_proxyservers</t>
+  </si>
+  <si>
+    <t>goc_coles_serverfarm</t>
+  </si>
+  <si>
+    <t>dg_au_dc_innerfw</t>
+  </si>
+  <si>
+    <t>gok_kmart_dcs,gok_kmart_offices, gok_kmart_sslvpnpools</t>
+  </si>
+  <si>
+    <t>gok_kmart_offices, gok_kmart_sslvpnpools</t>
+  </si>
+  <si>
+    <t>10.232.0.0/16</t>
+  </si>
+  <si>
+    <t>nok_172.31.0.0-16_KmartHO</t>
+  </si>
+  <si>
+    <t>nok_10.87.192.0-18_stores</t>
+  </si>
+  <si>
+    <t>172.31.0.0/16</t>
+  </si>
+  <si>
+    <t>10.87.192.0/18</t>
+  </si>
+  <si>
+    <t>Colesall</t>
+  </si>
+  <si>
+    <t>del_172.22.61.243_utsap1</t>
+  </si>
+  <si>
+    <t>del_172.22.61.30_sh0301ec</t>
+  </si>
+  <si>
+    <t>gpc_qet_servers</t>
+  </si>
+  <si>
+    <t>gpc_wins</t>
+  </si>
+  <si>
+    <t>grp_coles_prod_mq</t>
+  </si>
+  <si>
+    <t>grp_Coles_Tivoli_Servers</t>
+  </si>
+  <si>
+    <t>grp_internal_dns</t>
+  </si>
+  <si>
+    <t>grp_SAP_new</t>
+  </si>
+  <si>
+    <t>grp_sysmanage_servers</t>
+  </si>
+  <si>
+    <t>grp_TRM_servers</t>
+  </si>
+  <si>
+    <t>grp_Windows_Filesystems</t>
+  </si>
+  <si>
+    <t>hoc_172.22.161.23_lx-papcops</t>
+  </si>
+  <si>
+    <t>Coles_pwdreset_svr</t>
+  </si>
+  <si>
+    <t>Coles_ent_tech</t>
+  </si>
+  <si>
+    <t>Coles_sap</t>
+  </si>
+  <si>
+    <t>Coles_sap_1</t>
+  </si>
+  <si>
+    <t>Coles_sap_2</t>
+  </si>
+  <si>
+    <t>Coles_sap_3</t>
+  </si>
+  <si>
+    <t>Coles_sap_4</t>
+  </si>
+  <si>
+    <t>Coles_sap_5</t>
+  </si>
+  <si>
+    <t>Coles_secadm</t>
+  </si>
+  <si>
+    <t>Coles_sql</t>
+  </si>
+  <si>
+    <t>Coles_struxureware</t>
+  </si>
+  <si>
+    <t>Coles_sysmanage</t>
+  </si>
+  <si>
+    <t>Coles_tivoli</t>
+  </si>
+  <si>
+    <t>Coles_websphere</t>
+  </si>
+  <si>
+    <t>Coles_websphere_1</t>
+  </si>
+  <si>
+    <t>Coles_winservers</t>
+  </si>
+  <si>
+    <t>Coles_wins</t>
+  </si>
+  <si>
+    <t>Coles_trm</t>
+  </si>
+  <si>
+    <t>Coles_eai</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.181 and 5.4.5.429 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.64 and 5.4.5.65 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.62 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.66 and 5.4.5.591on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.155 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.156 and 5.4.5.157 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.488 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.583 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.182 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.584 and 5.4.5.585 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.590 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.150 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.165 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.192 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.151 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.127 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.122 and 5.4.5.123 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.193 on Coles side</t>
+  </si>
+  <si>
+    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.619 on Coles side</t>
+  </si>
+  <si>
+    <t>gok_kmart_dcs, gok_kmart_offices, gok_kmart_sslvpnpools, gok_core_stores, nok_172.31.0.0-16_KmartHO, gok_Kmart_all</t>
+  </si>
+  <si>
+    <t>gok_Kmart_all, nok_10.87.192.0-18_stores</t>
+  </si>
+  <si>
+    <t>gok_kmart_sslvpnpools, nok_172.31.0.0-16_KmartHO</t>
+  </si>
+  <si>
+    <t>gok_kmart_offices, gok_kmart_sslvpnpools, gok_core_stores, nok_172.31.0.0-16_KmartHO</t>
+  </si>
+  <si>
+    <t>hoc_172.22.29.123_WPEPS02VM, hoc_172.22.29.67_WDEPS01VM, hoc_172.22.31.145_WPEPS01VM</t>
+  </si>
+  <si>
+    <t>del_172.22.61.243_utsap1, del_172.22.61.30_sh0301ec, grp_SAP_new, hoc_172.22.160.46_udixos1, hoc_172.22.160.47_utsap1, hoc_172.22.160.49_sh0301ec, hoc_172.22.31.181_upsap3, hoc_172.22.61.100_upsap1, hoc_172.25.31.206_Uqsap3, hoc_172.25.61.114_uqsap1</t>
+  </si>
+  <si>
+    <t>hoc_172.22.4.71_ZSTLLTCM601, hoc_172.22.71.48_wpsapepprd02, hoc_172.22.71.69_wpsapepuat02, hoc_172.25.182.38_connectuat, hoc_172.25.191.139_wpsapepdev01, hoc_172.25.191.140_wpsapepuat01, hoc_172.25.42.96_wpsapeptst01, hoc_172.27.3.207_connectuat, hoc_192.168.98.23_saprp100, hoc_192.168.99.26_saprq300</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.24_connecttest, hoc_172.25.182.38_connectuat, hoc_172.25.184.228_connectportal</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.94_lpunixweb03, hoc_172.25.159.99_lpunixweb01</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.128_dpx04db01, hoc_172.22.150.129_dpx04db02, hoc_172.22.150.130_dpx04db03, hoc_172.22.150.131_dpx04db04, hoc_172.22.150.160_ddx02db01, hoc_172.22.150.161_ddx02db02, hoc_172.22.150.162_ddx02db03, hoc_172.22.150.163_ddx02db04, hoc_172.22.160.100_dpx0401-vip, hoc_172.22.160.101_dpx0402-vip, hoc_172.22.160.102_dpx0403-vip, hoc_172.22.160.103_dpx0404-vip, hoc_172.22.160.104_dpx04-scan, hoc_172.22.160.105_dpx04-scan, hoc_172.22.160.106_dpx04-scan, hoc_172.22.160.200_ddx0201-vip, hoc_172.22.160.201_ddx0202-vip, hoc_172.22.160.202_ddx0203-vip, hoc_172.22.160.203_ddx0204-vip, hoc_172.22.160.204_ddx02-scan, hoc_172.22.160.205_ddx02-scan, hoc_172.22.160.206_ddx02-scan, hoc_172.22.150.20_dpx05db01, hoc_172.22.150.21_dpx05db02, hoc_172.22.150.22_dpx05db03, hoc_172.22.150.23_dpx05db04, hoc_172.22.162.68_dpx0501-vip, hoc_172.22.162.69_dpx0502-vip, hoc_172.22.162.70_dpx0503-vip, hoc_172.22.162.71_dpx0504-vip, hoc_172.22.162.72_dpx05-scan, hoc_172.22.162.73_dpx05-scan, hoc_172.22.162.74_dpx05-scan</t>
+  </si>
+  <si>
+    <t>grp_Coles_Tivoli_Servers, hoc_172.22.31.133_gmpgw10, hoc_172.22.43.27_dsmprd20, hoc_172.22.43.34_uprsprt02, hoc_172.22.43.41_gmpgw20, hoc_172.25.159.73_lpitmrtems4, hoc_172.25.159.74_lpitmrtems1, hoc_172.25.159.79_lpitmrtems6, hoc_172.25.163.224_lpitmrtems5, hoc_172.25.43.35_uprsprt03, hoc_172.25.52.36_tivtest10, hoc_172.25.52.39_torgate10-g0</t>
+  </si>
+  <si>
+    <t>gpc_wins, hoc_172.25.41.99_wpwins09vm</t>
+  </si>
+  <si>
+    <t>grp_TRM_servers, hoc_172.25.184.151_mercuryam-sys-new, hoc_172.25.184.154_wfctrm21, hoc_172.25.71.36_trm-fllweb-22</t>
+  </si>
+  <si>
+    <t>tcp_443,tcp_80</t>
+  </si>
+  <si>
+    <t>tcp_7000, tcp_5510, tcp_5522</t>
+  </si>
+  <si>
+    <t>tcp_9443</t>
+  </si>
+  <si>
+    <t>tcp_139,tcp_3000-5000,tcp_445</t>
+  </si>
+  <si>
+    <t>tcp_3241, tcp_3243, tcp_3641, tcp_3643, tcp_3612, tcp_3201, tcp_3202, tcp_3203, tcp_3211, tcp_3212, tcp_3222, tcp_3232, tcp_3242, tcp_3601, tcp_3602, tcp_3603, tcp_3622, tcp_3642, tcp_8022</t>
+  </si>
+  <si>
+    <t>tcp_20443, tcp_443, tcp_80, tcp_1090, tcp_2443, tcp_3200, tcp_3300, tcp_3600, tcp_4700, tcp_4800, tcp_8000, tcp_8443, tcp_9443, tcp_50000, tcp_51001, tcp_8446</t>
+  </si>
+  <si>
+    <t>tcp_443, tcp_80, tcp_1090, tcp_2443, tcp_8443, tcp_9443, tcp_2444, tcp_8444, tcp_9444</t>
+  </si>
+  <si>
+    <t>tcp_1984, tcp_80</t>
+  </si>
+  <si>
+    <t>tcp_1521</t>
+  </si>
+  <si>
+    <t>tcp_443, tcp_80, tcp_4457-4462</t>
+  </si>
+  <si>
+    <t>tcp_135, tcp_139, tcp_445, tcp_80</t>
+  </si>
+  <si>
+    <t>tcp_6969</t>
+  </si>
+  <si>
+    <t>tcp_8001, tcp_8002, tcp_8021, tcp_8022</t>
+  </si>
+  <si>
+    <t>tcp_8011</t>
+  </si>
+  <si>
+    <t>udp_69, udp_137, udp_138, tcp_1050, tcp_135, tcp_139, tcp_42, tcp_445</t>
+  </si>
+  <si>
+    <t>tcp_80</t>
+  </si>
+  <si>
+    <t>hoc_192.168.96.52_TMS_Prod
+hoc_192.168.241.87_Ingenico_Kidman</t>
+  </si>
+  <si>
+    <t>hoc_172.22.71.31_eds_test, hoc_172.25.182.39_connectuat2</t>
+  </si>
+  <si>
+    <t>hoc_172.27.16.11_portal, hoc_172.27.16.35_login-iam-prd, hoc_172.27.17.23_login-iam-test, hoc_172.27.17.33_login-iam, hoc_172.27.17.39_login-iam-dev, hoc_172.27.17.91_portaltest, hoc_172.28.139.227_portaldev, hoc_172.25.184.226_portal_cmlconnect_org, hoc_172.25.182.22_portalsvt, hoc_172.27.17.11_tmpportalsvt, hoc_172.27.17.33_login-iam</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.38_utmq1, hoc_172.25.181.40_utmq2, hoc_172.25.181.37_utmq1s, hoc_172.25.181.39_utmq2s</t>
+  </si>
+  <si>
+    <t>hoc_172.22.161.23_lx-papcops, hoc_172.22.161.72, hoc_172.22.162.61_APCDCO</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>goc_qet_servers</t>
+  </si>
+  <si>
+    <t>goc_wins</t>
+  </si>
+  <si>
+    <t>object not present</t>
+  </si>
+  <si>
+    <t>goc_coles_tivoli_servers</t>
+  </si>
+  <si>
+    <t>goc_internal_dns</t>
+  </si>
+  <si>
+    <t>goc_trm_servers</t>
+  </si>
+  <si>
+    <t>goc_windows_filesystems</t>
   </si>
 </sst>
 </file>
@@ -307,7 +1539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -323,6 +1555,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,152 +1885,2026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="9"/>
+    <col min="2" max="2" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" style="9" customWidth="1"/>
+    <col min="9" max="10" width="26" style="9" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="47.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="9"/>
+    <col min="17" max="17" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="14.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="T4" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="H8" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="b">
+      <c r="T8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="T2" s="1" t="b">
+    </row>
+    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S9" s="9" t="b">
         <v>0</v>
+      </c>
+      <c r="T9" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="144" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="144" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1054</v>
+      </c>
+      <c r="S34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +3918,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +3950,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -838,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -853,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -865,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>14</v>
@@ -874,28 +3995,28 @@
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -903,55 +4024,55 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="b">
@@ -961,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -971,22 +4092,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -995,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1003,104 +4125,2032 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
+      <c r="D2" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
+      <c r="D3" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
+      <c r="D5" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
+      <c r="D6" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
+      <c r="D7" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>299</v>
+      </c>
+      <c r="C102" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>312</v>
+      </c>
+      <c r="C109" t="s">
+        <v>313</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C110" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C112" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C114" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" t="s">
+        <v>325</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" t="s">
+        <v>327</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" t="s">
+        <v>328</v>
+      </c>
+      <c r="C117" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" t="s">
+        <v>330</v>
+      </c>
+      <c r="C118" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" t="s">
+        <v>332</v>
+      </c>
+      <c r="C119" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C121" t="s">
+        <v>337</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" t="s">
+        <v>340</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C124" t="s">
+        <v>342</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" t="s">
+        <v>344</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" t="s">
+        <v>346</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" t="s">
+        <v>347</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" t="s">
+        <v>351</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" t="s">
+        <v>353</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" t="s">
+        <v>355</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" t="s">
+        <v>356</v>
+      </c>
+      <c r="C132" t="s">
+        <v>357</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" t="s">
+        <v>359</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" t="s">
+        <v>361</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" t="s">
+        <v>363</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" t="s">
+        <v>365</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" t="s">
+        <v>367</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" t="s">
+        <v>369</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" t="s">
+        <v>384</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C140" t="s">
+        <v>387</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C141" t="s">
+        <v>388</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" t="s">
+        <v>337</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1110,23 +6160,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1135,82 +6185,147 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B2" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
+      <c r="B3" s="9" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
+      <c r="B4" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
+      <c r="B5" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
+      <c r="B8" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>481</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,10 +6335,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0D103-70F1-467C-A4A0-6C4FAD2E3DAB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,13 +6347,13 @@
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1246,11 +6361,11 @@
       <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -1258,64 +6373,1712 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B3" si="0">_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
-        <v>tcp_444</v>
+        <f>_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
+        <v>tcp_464</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>444</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
+      <c r="D2" s="11">
+        <v>464</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>udp_555</v>
+        <f>_xlfn.CONCAT(LOWER(C3),"_",D3)</f>
+        <v>udp_123</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>555</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
+      <c r="D3" s="11">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(LOWER(C4),"_",D4)</f>
+        <v>udp_389</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11">
+        <v>389</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT(LOWER(C5),"_",D5)</f>
+        <v>udp_464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11">
+        <v>464</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(LOWER(C6),"_",D6)</f>
+        <v>udp_636</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>636</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT(LOWER(C7),"_",D7)</f>
+        <v>udp_88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT(LOWER(C8),"_",D8)</f>
+        <v>udp_138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(LOWER(C9),"_",D9)</f>
+        <v>tcp_135</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>9999</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D9" s="11">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT(LOWER(C10),"_",D10)</f>
+        <v>tcp_139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT(LOWER(C11),"_",D11)</f>
+        <v>tcp_3268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3268</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT(LOWER(C12),"_",D12)</f>
+        <v>tcp_445</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11">
+        <v>445</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT(LOWER(C13),"_",D13)</f>
+        <v>tcp_88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT(LOWER(C14),"_",D14)</f>
+        <v>tcp_123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT(LOWER(C15),"_",D15)</f>
+        <v>tcp_137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="str">
+        <f>_xlfn.CONCAT(LOWER(C16),"_",D16)</f>
+        <v>tcp_3269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3269</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.CONCAT(LOWER(C17),"_",D17)</f>
+        <v>tcp_389</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11">
+        <v>389</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="str">
+        <f>_xlfn.CONCAT(LOWER(C18),"_",D18)</f>
+        <v>tcp_53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="str">
+        <f>_xlfn.CONCAT(LOWER(C19),"_",D19)</f>
+        <v>tcp_636</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11">
+        <v>636</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="str">
+        <f>_xlfn.CONCAT(LOWER(C20),"_",D20)</f>
+        <v>tcp_9389</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11">
+        <v>9389</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="str">
+        <f>_xlfn.CONCAT(LOWER(C21),"_",D21)</f>
+        <v>tcp_24158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11">
+        <v>24158</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT(LOWER(C22),"_",D22)</f>
+        <v>udp_137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.CONCAT(LOWER(C23),"_",D23)</f>
+        <v>udp_53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.CONCAT(LOWER(C24),"_",D24)</f>
+        <v>udp_445</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11">
+        <v>445</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="str">
+        <f>_xlfn.CONCAT(LOWER(C25),"_",D25)</f>
+        <v>tcp_1025</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1025</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="str">
+        <f>_xlfn.CONCAT(LOWER(C26),"_",D26)</f>
+        <v>tcp_59001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11">
+        <v>59001</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="str">
+        <f>_xlfn.CONCAT(LOWER(C27),"_",D27)</f>
+        <v>tcp_80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="str">
+        <f>_xlfn.CONCAT(LOWER(C28),"_",D28)</f>
+        <v>tcp_21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="str">
+        <f>_xlfn.CONCAT(LOWER(C29),"_",D29)</f>
+        <v>udp_4011</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="11">
+        <v>4011</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="str">
+        <f>_xlfn.CONCAT(LOWER(C30),"_",D30)</f>
+        <v>udp_69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="11">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="str">
+        <f>_xlfn.CONCAT(LOWER(C31),"_",D31)</f>
+        <v>udp_67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="11">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT(LOWER(C32),"_",D32)</f>
+        <v>udp_68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="11">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="str">
+        <f>_xlfn.CONCAT(LOWER(C33),"_",D33)</f>
+        <v>tcp_443</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11">
+        <v>443</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="str">
+        <f>_xlfn.CONCAT(LOWER(C34),"_",D34)</f>
+        <v>tcp_7443</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11">
+        <v>7443</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="str">
+        <f>_xlfn.CONCAT(LOWER(C35),"_",D35)</f>
+        <v>tcp_9443</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11">
+        <v>9443</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="str">
+        <f>_xlfn.CONCAT(LOWER(C36),"_",D36)</f>
+        <v>tcp_1433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1433</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="str">
+        <f>_xlfn.CONCAT(LOWER(C37),"_",D37)</f>
+        <v>tcp_2107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2107</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="str">
+        <f>_xlfn.CONCAT(LOWER(C38),"_",D38)</f>
+        <v>tcp_2953</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2953</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="str">
+        <f>_xlfn.CONCAT(LOWER(C39),"_",D39)</f>
+        <v>tcp_2954</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2954</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="str">
+        <f>_xlfn.CONCAT(LOWER(C40),"_",D40)</f>
+        <v>tcp_3443</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11">
+        <v>3443</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="str">
+        <f>_xlfn.CONCAT(LOWER(C41),"_",D41)</f>
+        <v>tcp_7510</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11">
+        <v>7510</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="str">
+        <f>_xlfn.CONCAT(LOWER(C42),"_",D42)</f>
+        <v>udp_162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="11">
+        <v>162</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="str">
+        <f>_xlfn.CONCAT(LOWER(C43),"_",D43)</f>
+        <v>tcp_7000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f>_xlfn.CONCAT(LOWER(C44),"_",D44)</f>
+        <v>tcp_25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="11">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="str">
+        <f>_xlfn.CONCAT(LOWER(C45),"_",D45)</f>
+        <v>tcp_22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="11">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="str">
+        <f>_xlfn.CONCAT(LOWER(C46),"_",D46)</f>
+        <v>tcp_23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="11">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="str">
+        <f>_xlfn.CONCAT(LOWER(C47),"_",D47)</f>
+        <v>tcp_3389</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3389</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="str">
+        <f>_xlfn.CONCAT(LOWER(C48),"_",D48)</f>
+        <v>tcp_8080</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11">
+        <v>8080</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="str">
+        <f>_xlfn.CONCAT(LOWER(C49),"_",D49)</f>
+        <v>tcp_5510</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11">
+        <v>5510</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="str">
+        <f>_xlfn.CONCAT(LOWER(C50),"_",D50)</f>
+        <v>tcp_5522</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="11">
+        <v>5522</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="str">
+        <f>_xlfn.CONCAT(LOWER(C51),"_",D51)</f>
+        <v>tcp_3000-5000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="str">
+        <f>_xlfn.CONCAT(LOWER(C52),"_",D52)</f>
+        <v>tcp_3241</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="11">
+        <v>3241</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="str">
+        <f>_xlfn.CONCAT(LOWER(C53),"_",D53)</f>
+        <v>tcp_3243</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="11">
+        <v>3243</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="str">
+        <f>_xlfn.CONCAT(LOWER(C54),"_",D54)</f>
+        <v>tcp_3641</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="11">
+        <v>3641</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="str">
+        <f>_xlfn.CONCAT(LOWER(C55),"_",D55)</f>
+        <v>tcp_3643</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="11">
+        <v>3643</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="str">
+        <f>_xlfn.CONCAT(LOWER(C56),"_",D56)</f>
+        <v>tcp_3612</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="11">
+        <v>3612</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="str">
+        <f>_xlfn.CONCAT(LOWER(C57),"_",D57)</f>
+        <v>tcp_3201</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11">
+        <v>3201</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="str">
+        <f>_xlfn.CONCAT(LOWER(C58),"_",D58)</f>
+        <v>tcp_3202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="11">
+        <v>3202</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="str">
+        <f>_xlfn.CONCAT(LOWER(C59),"_",D59)</f>
+        <v>tcp_3203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="11">
+        <v>3203</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="str">
+        <f>_xlfn.CONCAT(LOWER(C60),"_",D60)</f>
+        <v>tcp_3211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="11">
+        <v>3211</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="str">
+        <f>_xlfn.CONCAT(LOWER(C61),"_",D61)</f>
+        <v>tcp_3212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="11">
+        <v>3212</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="str">
+        <f>_xlfn.CONCAT(LOWER(C62),"_",D62)</f>
+        <v>tcp_3222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="11">
+        <v>3222</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="str">
+        <f>_xlfn.CONCAT(LOWER(C63),"_",D63)</f>
+        <v>tcp_3232</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="11">
+        <v>3232</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="str">
+        <f>_xlfn.CONCAT(LOWER(C64),"_",D64)</f>
+        <v>tcp_3242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="11">
+        <v>3242</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" t="str">
+        <f>_xlfn.CONCAT(LOWER(C65),"_",D65)</f>
+        <v>tcp_3601</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="11">
+        <v>3601</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="str">
+        <f>_xlfn.CONCAT(LOWER(C66),"_",D66)</f>
+        <v>tcp_3602</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="11">
+        <v>3602</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="str">
+        <f>_xlfn.CONCAT(LOWER(C67),"_",D67)</f>
+        <v>tcp_3603</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="11">
+        <v>3603</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="str">
+        <f>_xlfn.CONCAT(LOWER(C68),"_",D68)</f>
+        <v>tcp_3622</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="11">
+        <v>3622</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="str">
+        <f>_xlfn.CONCAT(LOWER(C69),"_",D69)</f>
+        <v>tcp_3642</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="11">
+        <v>3642</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="str">
+        <f>_xlfn.CONCAT(LOWER(C70),"_",D70)</f>
+        <v>tcp_8022</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="11">
+        <v>8022</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="str">
+        <f>_xlfn.CONCAT(LOWER(C71),"_",D71)</f>
+        <v>tcp_20443</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="11">
+        <v>20443</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="str">
+        <f>_xlfn.CONCAT(LOWER(C72),"_",D72)</f>
+        <v>tcp_1090</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1090</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="str">
+        <f>_xlfn.CONCAT(LOWER(C73),"_",D73)</f>
+        <v>tcp_2443</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="11">
+        <v>2443</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="str">
+        <f>_xlfn.CONCAT(LOWER(C74),"_",D74)</f>
+        <v>tcp_3200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="11">
+        <v>3200</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="str">
+        <f>_xlfn.CONCAT(LOWER(C75),"_",D75)</f>
+        <v>tcp_3300</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="11">
+        <v>3300</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="str">
+        <f>_xlfn.CONCAT(LOWER(C76),"_",D76)</f>
+        <v>tcp_3600</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="11">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="str">
+        <f>_xlfn.CONCAT(LOWER(C77),"_",D77)</f>
+        <v>tcp_4700</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="11">
+        <v>4700</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="str">
+        <f>_xlfn.CONCAT(LOWER(C78),"_",D78)</f>
+        <v>tcp_4800</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="11">
+        <v>4800</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="str">
+        <f>_xlfn.CONCAT(LOWER(C79),"_",D79)</f>
+        <v>tcp_8000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="11">
+        <v>8000</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="str">
+        <f>_xlfn.CONCAT(LOWER(C80),"_",D80)</f>
+        <v>tcp_8443</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="11">
+        <v>8443</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="str">
+        <f>_xlfn.CONCAT(LOWER(C81),"_",D81)</f>
+        <v>tcp_50000</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="str">
+        <f>_xlfn.CONCAT(LOWER(C82),"_",D82)</f>
+        <v>tcp_51001</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="11">
+        <v>51001</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="str">
+        <f>_xlfn.CONCAT(LOWER(C83),"_",D83)</f>
+        <v>tcp_8446</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="11">
+        <v>8446</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="str">
+        <f>_xlfn.CONCAT(LOWER(C84),"_",D84)</f>
+        <v>tcp_2444</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="11">
+        <v>2444</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="str">
+        <f>_xlfn.CONCAT(LOWER(C85),"_",D85)</f>
+        <v>tcp_8444</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="11">
+        <v>8444</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="str">
+        <f>_xlfn.CONCAT(LOWER(C86),"_",D86)</f>
+        <v>tcp_9444</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="11">
+        <v>9444</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="str">
+        <f>_xlfn.CONCAT(LOWER(C87),"_",D87)</f>
+        <v>tcp_1984</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1984</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="str">
+        <f>_xlfn.CONCAT(LOWER(C88),"_",D88)</f>
+        <v>tcp_1521</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1521</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="str">
+        <f>_xlfn.CONCAT(LOWER(C89),"_",D89)</f>
+        <v>tcp_4457-4462</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="str">
+        <f>_xlfn.CONCAT(LOWER(C90),"_",D90)</f>
+        <v>tcp_6969</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="11">
+        <v>6969</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="str">
+        <f>_xlfn.CONCAT(LOWER(C91),"_",D91)</f>
+        <v>tcp_8001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="11">
+        <v>8001</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="str">
+        <f>_xlfn.CONCAT(LOWER(C92),"_",D92)</f>
+        <v>tcp_8002</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="11">
+        <v>8002</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="str">
+        <f>_xlfn.CONCAT(LOWER(C93),"_",D93)</f>
+        <v>tcp_8021</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="11">
+        <v>8021</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="str">
+        <f>_xlfn.CONCAT(LOWER(C94),"_",D94)</f>
+        <v>tcp_8011</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="11">
+        <v>8011</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" t="str">
+        <f>_xlfn.CONCAT(LOWER(C95),"_",D95)</f>
+        <v>tcp_1050</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1050</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" t="str">
+        <f>_xlfn.CONCAT(LOWER(C96),"_",D96)</f>
+        <v>tcp_42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="11">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
+      <c r="E96" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +8088,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6472A306-4237-4364-B563-EDDE513583A6}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,7 +8104,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1350,45 +8113,14 @@
         <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932939D-20BB-400E-8499-C1C2E47C8264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7AF6AD-6ACD-4412-874A-99CE85F4E893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="216">
   <si>
     <t>Name</t>
   </si>
@@ -89,15 +89,6 @@
     <t>192.168.96.52</t>
   </si>
   <si>
-    <t>172.22.150.129</t>
-  </si>
-  <si>
-    <t>172.22.150.130</t>
-  </si>
-  <si>
-    <t>172.22.150.131</t>
-  </si>
-  <si>
     <t>test added by Ansible</t>
   </si>
   <si>
@@ -365,787 +356,13 @@
     <t>172.22.150.128</t>
   </si>
   <si>
-    <t>hoc_172.22.150.129_dpx04db02</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.130_dpx04db03</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.131_dpx04db04</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.160_ddx02db01</t>
-  </si>
-  <si>
-    <t>172.22.150.160</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.161_ddx02db02</t>
-  </si>
-  <si>
-    <t>172.22.150.161</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.162_ddx02db03</t>
-  </si>
-  <si>
-    <t>172.22.150.162</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.163_ddx02db04</t>
-  </si>
-  <si>
-    <t>172.22.150.163</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.20_dpx05db01</t>
-  </si>
-  <si>
-    <t>172.22.150.20</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.21_dpx05db02</t>
-  </si>
-  <si>
-    <t>172.22.150.21</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.22_dpx05db03</t>
-  </si>
-  <si>
-    <t>172.22.150.23</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.23_dpx05db04</t>
-  </si>
-  <si>
-    <t>172.22.150.22</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.100_dpx0401-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.100</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.101_dpx0402-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.101</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.102_dpx0403-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.102</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.103_dpx0404-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.103</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.104_dpx04-scan</t>
-  </si>
-  <si>
-    <t>172.22.160.104</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.105_dpx04-scan</t>
-  </si>
-  <si>
-    <t>172.22.160.105</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.106_dpx04-scan</t>
-  </si>
-  <si>
-    <t>172.22.160.106</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.200_ddx0201-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.200</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.201_ddx0202-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.201</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.202_ddx0203-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.202</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.203_ddx0204-vip</t>
-  </si>
-  <si>
-    <t>172.22.160.203</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.204_ddx02-scan</t>
-  </si>
-  <si>
-    <t>172.22.160.204</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.205_ddx02-scan</t>
-  </si>
-  <si>
-    <t>172.22.160.205</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.206_ddx02-scan</t>
-  </si>
-  <si>
-    <t>172.22.160.206</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.46_udixos1</t>
-  </si>
-  <si>
-    <t>172.22.160.46</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.47_utsap1</t>
-  </si>
-  <si>
-    <t>172.22.160.47</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.49_sh0301ec</t>
-  </si>
-  <si>
-    <t>172.22.160.49</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.94_lpunixweb03</t>
-  </si>
-  <si>
-    <t>172.22.160.94</t>
-  </si>
-  <si>
-    <t>172.22.161.23</t>
-  </si>
-  <si>
-    <t>hoc_172.22.161.72</t>
-  </si>
-  <si>
-    <t>172.22.161.72</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.61_APCDCO</t>
-  </si>
-  <si>
-    <t>172.22.162.61</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.68_dpx0501-vip</t>
-  </si>
-  <si>
-    <t>172.22.162.68</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.69_dpx0502-vip</t>
-  </si>
-  <si>
-    <t>172.22.162.69</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.70_dpx0503-vip</t>
-  </si>
-  <si>
-    <t>172.22.162.70</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.71_dpx0504-vip</t>
-  </si>
-  <si>
-    <t>172.22.162.71</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.72_dpx05-scan</t>
-  </si>
-  <si>
-    <t>172.22.162.72</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.73_dpx05-scan</t>
-  </si>
-  <si>
-    <t>172.22.162.73</t>
-  </si>
-  <si>
-    <t>hoc_172.22.162.74_dpx05-scan</t>
-  </si>
-  <si>
-    <t>172.22.162.74</t>
-  </si>
-  <si>
-    <t>hoc_172.22.29.123_WPEPS02VM</t>
-  </si>
-  <si>
-    <t>172.22.29.123</t>
-  </si>
-  <si>
-    <t>hoc_172.22.29.67_WDEPS01VM</t>
-  </si>
-  <si>
-    <t>172.22.31.133</t>
-  </si>
-  <si>
-    <t>hoc_172.22.31.133_gmpgw10</t>
-  </si>
-  <si>
-    <t>172.22.29.67</t>
-  </si>
-  <si>
-    <t>hoc_172.22.31.145_WPEPS01VM</t>
-  </si>
-  <si>
-    <t>172.22.31.145</t>
-  </si>
-  <si>
-    <t>hoc_172.22.31.181_upsap3</t>
-  </si>
-  <si>
-    <t>172.22.31.181</t>
-  </si>
-  <si>
-    <t>hoc_172.22.4.71_ZSTLLTCM601</t>
-  </si>
-  <si>
-    <t>172.22.4.71</t>
-  </si>
-  <si>
-    <t>hoc_172.22.43.27_dsmprd20</t>
-  </si>
-  <si>
-    <t>172.22.43.27</t>
-  </si>
-  <si>
-    <t>hoc_172.22.43.34_uprsprt02</t>
-  </si>
-  <si>
-    <t>172.22.43.34</t>
-  </si>
-  <si>
-    <t>hoc_172.22.43.41_gmpgw20</t>
-  </si>
-  <si>
-    <t>172.22.43.41</t>
-  </si>
-  <si>
-    <t>hoc_172.22.61.100_upsap1</t>
-  </si>
-  <si>
-    <t>172.22.61.100</t>
-  </si>
-  <si>
-    <t>hoc_172.22.71.48_wpsapepprd02</t>
-  </si>
-  <si>
-    <t>172.22.71.48</t>
-  </si>
-  <si>
-    <t>hoc_172.22.71.69_wpsapepuat02</t>
-  </si>
-  <si>
-    <t>172.22.71.69</t>
-  </si>
-  <si>
-    <t>hoc_172.25.151.51_utnnm</t>
-  </si>
-  <si>
-    <t>172.25.151.51</t>
-  </si>
-  <si>
-    <t>hoc_172.25.151.52_utnnm</t>
-  </si>
-  <si>
-    <t>172.25.151.52</t>
-  </si>
-  <si>
-    <t>hoc_172.25.159.73_lpitmrtems4</t>
-  </si>
-  <si>
-    <t>172.25.159.73</t>
-  </si>
-  <si>
-    <t>hoc_172.25.159.74_lpitmrtems1</t>
-  </si>
-  <si>
-    <t>172.25.159.74</t>
-  </si>
-  <si>
-    <t>hoc_172.25.159.79_lpitmrtems6</t>
-  </si>
-  <si>
-    <t>172.25.159.79</t>
-  </si>
-  <si>
-    <t>hoc_172.25.159.99_lpunixweb01</t>
-  </si>
-  <si>
-    <t>172.25.159.99</t>
-  </si>
-  <si>
-    <t>hoc_172.25.163.216_scripts.CMLCONNECT.ORG</t>
-  </si>
-  <si>
-    <t>172.25.163.216</t>
-  </si>
-  <si>
-    <t>hoc_172.25.163.224_lpitmrtems5</t>
-  </si>
-  <si>
-    <t>172.25.163.224</t>
-  </si>
-  <si>
-    <t>hoc_172.25.163.66_wpdtimedev01vm</t>
-  </si>
-  <si>
-    <t>172.25.163.66</t>
-  </si>
-  <si>
-    <t>hoc_172.25.163.90_WPDTIME01VM</t>
-  </si>
-  <si>
-    <t>172.25.163.90</t>
-  </si>
-  <si>
-    <t>hoc_172.25.163.92_WPDTIME02VM</t>
-  </si>
-  <si>
-    <t>172.25.163.92</t>
-  </si>
-  <si>
-    <t>hoc_172.25.174.79_WPSQL14E</t>
-  </si>
-  <si>
-    <t>172.25.174.79</t>
-  </si>
-  <si>
-    <t>hoc_172.25.181.38_utmq1</t>
-  </si>
-  <si>
-    <t>172.25.181.38</t>
-  </si>
-  <si>
-    <t>hoc_172.25.181.40_utmq2</t>
-  </si>
-  <si>
-    <t>172.25.181.40</t>
-  </si>
-  <si>
-    <t>hoc_172.25.182.22_portalsvt</t>
-  </si>
-  <si>
-    <t>172.25.182.22</t>
-  </si>
-  <si>
-    <t>hoc_172.25.182.24_connecttest</t>
-  </si>
-  <si>
-    <t>172.25.182.24</t>
-  </si>
-  <si>
-    <t>hoc_172.25.182.38_connectuat</t>
-  </si>
-  <si>
-    <t>172.25.182.38</t>
-  </si>
-  <si>
-    <t>hoc_172.25.182.39_connectuat2</t>
-  </si>
-  <si>
-    <t>172.25.182.39</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.151_mercuryam-sys-new</t>
-  </si>
-  <si>
-    <t>172.25.184.151</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.154_wfctrm21</t>
-  </si>
-  <si>
-    <t>172.25.184.154</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.159_coleswebmail</t>
-  </si>
-  <si>
-    <t>172.25.184.159</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.228_connectportal</t>
-  </si>
-  <si>
-    <t>172.25.184.228</t>
-  </si>
-  <si>
-    <t>hoc_172.25.191.113_wpclsql10e</t>
-  </si>
-  <si>
-    <t>172.25.191.113</t>
-  </si>
-  <si>
-    <t>hoc_172.25.191.139_wpsapepdev01</t>
-  </si>
-  <si>
-    <t>172.25.191.139</t>
-  </si>
-  <si>
-    <t>hoc_172.25.191.140_wpsapepuat01</t>
-  </si>
-  <si>
-    <t>172.25.191.140</t>
-  </si>
-  <si>
-    <t>hoc_172.25.191.152_wpclsql11e</t>
-  </si>
-  <si>
-    <t>172.25.191.152</t>
-  </si>
-  <si>
-    <t>hoc_172.25.29.148_wpsql01</t>
-  </si>
-  <si>
-    <t>172.25.29.148</t>
-  </si>
-  <si>
-    <t>hoc_172.25.31.206_Uqsap3</t>
-  </si>
-  <si>
-    <t>172.25.31.206</t>
-  </si>
-  <si>
-    <t>hoc_172.25.31.50_ironbark</t>
-  </si>
-  <si>
-    <t>172.25.31.50</t>
-  </si>
-  <si>
-    <t>hoc_172.25.31.55_spruce</t>
-  </si>
-  <si>
-    <t>172.25.31.55</t>
-  </si>
-  <si>
-    <t>hoc_172.25.41.73_wpdms02</t>
-  </si>
-  <si>
-    <t>172.25.41.73</t>
-  </si>
-  <si>
-    <t>hoc_172.25.41.99_wpwins09vm</t>
-  </si>
-  <si>
-    <t>172.25.41.99</t>
-  </si>
-  <si>
-    <t>hoc_172.25.42.96_wpsapeptst01</t>
-  </si>
-  <si>
-    <t>172.25.42.96</t>
-  </si>
-  <si>
-    <t>hoc_172.25.43.35_uprsprt03</t>
-  </si>
-  <si>
-    <t>172.25.43.35</t>
-  </si>
-  <si>
-    <t>hoc_172.25.52.36_tivtest10</t>
-  </si>
-  <si>
-    <t>172.25.52.36</t>
-  </si>
-  <si>
-    <t>hoc_172.25.52.39_torgate10-g0</t>
-  </si>
-  <si>
-    <t>172.25.52.39</t>
-  </si>
-  <si>
-    <t>hoc_172.25.61.114_uqsap1</t>
-  </si>
-  <si>
-    <t>172.25.61.114</t>
-  </si>
-  <si>
-    <t>hoc_172.25.71.36_trm-fllweb-22</t>
-  </si>
-  <si>
-    <t>172.25.71.36</t>
-  </si>
-  <si>
-    <t>hoc_172.25.71.56_wtsql14</t>
-  </si>
-  <si>
-    <t>172.25.71.56</t>
-  </si>
-  <si>
-    <t>hoc_172.27.0.135_webmail.cmltd.net.au</t>
-  </si>
-  <si>
-    <t>172.27.0.135</t>
-  </si>
-  <si>
-    <t>hoc_172.27.0.136_as3g.coles.com.au</t>
-  </si>
-  <si>
-    <t>172.27.0.136</t>
-  </si>
-  <si>
     <t>hoc_172.27.0.72_passwordreset</t>
   </si>
   <si>
-    <t>172.27.0.72</t>
-  </si>
-  <si>
-    <t>hoc_172.27.1.137_AppCentre</t>
-  </si>
-  <si>
-    <t>172.27.1.137</t>
-  </si>
-  <si>
-    <t>hoc_172.27.16.11_portal</t>
-  </si>
-  <si>
-    <t>172.27.16.11</t>
-  </si>
-  <si>
-    <t>hoc_172.27.16.35_login-iam-prd</t>
-  </si>
-  <si>
-    <t>172.27.16.35</t>
-  </si>
-  <si>
-    <t>hoc_172.27.17.11_tmpportalsvt</t>
-  </si>
-  <si>
-    <t>172.27.17.11</t>
-  </si>
-  <si>
-    <t>hoc_172.27.17.23_login-iam-test</t>
-  </si>
-  <si>
-    <t>172.27.17.23</t>
-  </si>
-  <si>
-    <t>hoc_172.27.17.33_login-iam</t>
-  </si>
-  <si>
-    <t>172.27.17.33</t>
-  </si>
-  <si>
-    <t>hoc_172.27.17.39_login-iam-dev</t>
-  </si>
-  <si>
-    <t>172.27.17.39</t>
-  </si>
-  <si>
-    <t>hoc_172.27.17.91_portaltest</t>
-  </si>
-  <si>
-    <t>172.27.17.91</t>
-  </si>
-  <si>
-    <t>172.27.255.84</t>
-  </si>
-  <si>
-    <t>hoc_172.27.3.207_connectuat</t>
-  </si>
-  <si>
-    <t>172.27.3.207</t>
-  </si>
-  <si>
     <t>hoc_172.27.34.7_prods-eailog</t>
   </si>
   <si>
-    <t>172.27.34.7</t>
-  </si>
-  <si>
-    <t>hoc_172.28.139.227_portaldev</t>
-  </si>
-  <si>
-    <t>172.28.139.227</t>
-  </si>
-  <si>
-    <t>hoc_192.168.173.111_lpextdns1n2</t>
-  </si>
-  <si>
-    <t>192.168.173.111</t>
-  </si>
-  <si>
-    <t>hoc_192.168.173.112_lpextdns2n2</t>
-  </si>
-  <si>
-    <t>192.168.173.112</t>
-  </si>
-  <si>
-    <t>hoc_192.168.180.50_ntp1</t>
-  </si>
-  <si>
-    <t>192.168.180.50</t>
-  </si>
-  <si>
-    <t>hoc_192.168.180.51_ntp2</t>
-  </si>
-  <si>
-    <t>192.168.180.51</t>
-  </si>
-  <si>
-    <t>hoc_192.168.241.87_Ingenico_Kidman</t>
-  </si>
-  <si>
-    <t>192.168.241.87</t>
-  </si>
-  <si>
-    <t>hoc_192.168.98.23_saprp100</t>
-  </si>
-  <si>
-    <t>192.168.98.23</t>
-  </si>
-  <si>
-    <t>hoc_192.168.99.26_saprq300</t>
-  </si>
-  <si>
-    <t>192.168.99.26</t>
-  </si>
-  <si>
-    <t>hoc_172.25.12.21_wpad01</t>
-  </si>
-  <si>
-    <t>172.25.12.21</t>
-  </si>
-  <si>
-    <t>hoc_172.25.181.37_utmq1s</t>
-  </si>
-  <si>
-    <t>172.25.181.37</t>
-  </si>
-  <si>
-    <t>hoc_172.25.181.39_utmq2s</t>
-  </si>
-  <si>
-    <t>172.25.181.39</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.161_CitrixAppcentre</t>
-  </si>
-  <si>
-    <t>172.25.184.161</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.226_portal_cmlconnect_org</t>
-  </si>
-  <si>
-    <t>172.25.184.226</t>
-  </si>
-  <si>
     <t>hoc_172.25.184.228_portal_cmlconnect_org_test</t>
-  </si>
-  <si>
-    <t>hoc_172.25.29.153_wpsql06</t>
-  </si>
-  <si>
-    <t>172.25.29.153</t>
-  </si>
-  <si>
-    <t>noc_172.22.0.0-16_Tallyho_serverfarm</t>
-  </si>
-  <si>
-    <t>172.22.0.0/16</t>
-  </si>
-  <si>
-    <t>noc_172.25.0.0-16_Tooronga_serverfarm</t>
-  </si>
-  <si>
-    <t>172.25.0.0/16</t>
-  </si>
-  <si>
-    <t>noc_172.26.0.0-16_Tooronga</t>
-  </si>
-  <si>
-    <t>172.26.0.0/16</t>
-  </si>
-  <si>
-    <t>172.28.0.0</t>
-  </si>
-  <si>
-    <t>noc_172.22.61.243_utsap1</t>
-  </si>
-  <si>
-    <t>172.22.61.243</t>
-  </si>
-  <si>
-    <t>noc_172.22.61.30_sh0301ec</t>
-  </si>
-  <si>
-    <t>172.22.61.30</t>
-  </si>
-  <si>
-    <t>noc_192.168.11.0-24_loopback</t>
-  </si>
-  <si>
-    <t>192.168.11.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.208.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.208.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.219.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.219.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.220.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.220.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.221.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.221.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.222.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.222.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.224.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.224.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.225.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.225.0/24</t>
-  </si>
-  <si>
-    <t>nok_192.168.226.0-24_CSC</t>
-  </si>
-  <si>
-    <t>192.168.226.0/24</t>
   </si>
   <si>
     <t>3000-5000</t>
@@ -1191,21 +408,9 @@
     <t>gok_kmart_offices, gok_kmart_sslvpnpools</t>
   </si>
   <si>
-    <t>10.232.0.0/16</t>
-  </si>
-  <si>
     <t>nok_172.31.0.0-16_KmartHO</t>
   </si>
   <si>
-    <t>nok_10.87.192.0-18_stores</t>
-  </si>
-  <si>
-    <t>172.31.0.0/16</t>
-  </si>
-  <si>
-    <t>10.87.192.0/18</t>
-  </si>
-  <si>
     <t>Colesall</t>
   </si>
   <si>
@@ -1240,9 +445,6 @@
   </si>
   <si>
     <t>grp_Windows_Filesystems</t>
-  </si>
-  <si>
-    <t>hoc_172.22.161.23_lx-papcops</t>
   </si>
   <si>
     <t>Coles_pwdreset_svr</t>
@@ -1889,7 +1091,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1924,13 +1126,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>5</v>
@@ -1939,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>8</v>
@@ -1951,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>14</v>
@@ -1960,72 +1162,72 @@
         <v>13</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="T1" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>374</v>
+        <v>113</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R2" s="9">
         <v>1054</v>
@@ -2039,55 +1241,55 @@
     </row>
     <row r="3" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>375</v>
+        <v>114</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R3" s="9">
         <v>1054</v>
@@ -2101,55 +1303,55 @@
     </row>
     <row r="4" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>376</v>
+        <v>115</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" s="9">
         <v>1054</v>
@@ -2163,55 +1365,55 @@
     </row>
     <row r="5" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R5" s="9">
         <v>1054</v>
@@ -2225,55 +1427,55 @@
     </row>
     <row r="6" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>377</v>
+        <v>116</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R6" s="9">
         <v>1054</v>
@@ -2287,55 +1489,55 @@
     </row>
     <row r="7" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>378</v>
+        <v>117</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R7" s="9">
         <v>1054</v>
@@ -2349,55 +1551,55 @@
     </row>
     <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R8" s="9">
         <v>1054</v>
@@ -2411,55 +1613,55 @@
     </row>
     <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>382</v>
+        <v>121</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="M9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R9" s="9">
         <v>1054</v>
@@ -2473,55 +1675,55 @@
     </row>
     <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>469</v>
+        <v>203</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R10" s="9">
         <v>1054</v>
@@ -2535,55 +1737,55 @@
     </row>
     <row r="11" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>383</v>
+        <v>122</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>380</v>
+        <v>119</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R11" s="9">
         <v>1054</v>
@@ -2597,55 +1799,55 @@
     </row>
     <row r="12" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9">
         <v>1054</v>
@@ -2659,55 +1861,55 @@
     </row>
     <row r="13" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R13" s="9">
         <v>1054</v>
@@ -2721,55 +1923,55 @@
     </row>
     <row r="14" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R14" s="9">
         <v>1054</v>
@@ -2783,55 +1985,55 @@
     </row>
     <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="L15" s="9" t="s">
-        <v>379</v>
+        <v>118</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R15" s="9">
         <v>1054</v>
@@ -2845,49 +2047,49 @@
     </row>
     <row r="16" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
-        <v>402</v>
+        <v>136</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>421</v>
+        <v>155</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>440</v>
+        <v>174</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>453</v>
+        <v>187</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R16" s="9">
         <v>1054</v>
@@ -2901,49 +2103,49 @@
     </row>
     <row r="17" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>441</v>
+        <v>175</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>392</v>
+        <v>127</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>454</v>
+        <v>188</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R17" s="9">
         <v>1054</v>
@@ -2957,49 +2159,49 @@
     </row>
     <row r="18" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>423</v>
+        <v>157</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>470</v>
+        <v>204</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>455</v>
+        <v>189</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R18" s="9">
         <v>1054</v>
@@ -3013,49 +2215,49 @@
     </row>
     <row r="19" spans="2:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>405</v>
+        <v>139</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>471</v>
+        <v>205</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>453</v>
+        <v>187</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R19" s="9">
         <v>1054</v>
@@ -3069,49 +2271,49 @@
     </row>
     <row r="20" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
-        <v>406</v>
+        <v>140</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>425</v>
+        <v>159</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>456</v>
+        <v>190</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R20" s="9">
         <v>1054</v>
@@ -3125,49 +2327,49 @@
     </row>
     <row r="21" spans="2:20" ht="144" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>407</v>
+        <v>141</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>445</v>
+        <v>179</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>457</v>
+        <v>191</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R21" s="9">
         <v>1054</v>
@@ -3181,49 +2383,49 @@
     </row>
     <row r="22" spans="2:20" ht="144" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>408</v>
+        <v>142</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>458</v>
+        <v>192</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R22" s="9">
         <v>1054</v>
@@ -3237,49 +2439,49 @@
     </row>
     <row r="23" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>409</v>
+        <v>143</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>428</v>
+        <v>162</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R23" s="9">
         <v>1054</v>
@@ -3293,49 +2495,49 @@
     </row>
     <row r="24" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
-        <v>410</v>
+        <v>144</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>429</v>
+        <v>163</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>442</v>
+        <v>176</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>448</v>
+        <v>182</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R24" s="9">
         <v>1054</v>
@@ -3349,49 +2551,49 @@
     </row>
     <row r="25" spans="2:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>383</v>
+        <v>122</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>449</v>
+        <v>183</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>461</v>
+        <v>195</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R25" s="9">
         <v>1054</v>
@@ -3405,49 +2607,49 @@
     </row>
     <row r="26" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>412</v>
+        <v>146</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>431</v>
+        <v>165</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>473</v>
+        <v>207</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>462</v>
+        <v>196</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R26" s="9">
         <v>1054</v>
@@ -3461,49 +2663,49 @@
     </row>
     <row r="27" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>413</v>
+        <v>147</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>432</v>
+        <v>166</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>463</v>
+        <v>197</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R27" s="9">
         <v>1054</v>
@@ -3517,49 +2719,49 @@
     </row>
     <row r="28" spans="2:20" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R28" s="9">
         <v>1054</v>
@@ -3573,49 +2775,49 @@
     </row>
     <row r="29" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>415</v>
+        <v>149</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>434</v>
+        <v>168</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>443</v>
+        <v>177</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>472</v>
+        <v>206</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R29" s="9">
         <v>1054</v>
@@ -3629,49 +2831,49 @@
     </row>
     <row r="30" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
-        <v>416</v>
+        <v>150</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>394</v>
+        <v>129</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R30" s="9">
         <v>1054</v>
@@ -3685,49 +2887,49 @@
     </row>
     <row r="31" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R31" s="9">
         <v>1054</v>
@@ -3741,49 +2943,49 @@
     </row>
     <row r="32" spans="2:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
-        <v>418</v>
+        <v>152</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>437</v>
+        <v>171</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>451</v>
+        <v>185</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>467</v>
+        <v>201</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R32" s="9">
         <v>1054</v>
@@ -3797,49 +2999,49 @@
     </row>
     <row r="33" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
-        <v>419</v>
+        <v>153</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>452</v>
+        <v>186</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>468</v>
+        <v>202</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R33" s="9">
         <v>1054</v>
@@ -3853,49 +3055,49 @@
     </row>
     <row r="34" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>439</v>
+        <v>173</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>468</v>
+        <v>202</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R34" s="9">
         <v>1054</v>
@@ -3950,7 +3152,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3959,13 +3161,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3974,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -3986,7 +3188,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>14</v>
@@ -3995,84 +3197,84 @@
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="b">
@@ -4082,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4094,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4108,7 +3310,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4117,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4125,2033 +3327,500 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" t="s">
-        <v>224</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" t="s">
-        <v>232</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" t="s">
-        <v>233</v>
-      </c>
-      <c r="C69" t="s">
-        <v>234</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" t="s">
-        <v>240</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C76" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" t="s">
-        <v>250</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" t="s">
-        <v>252</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" t="s">
-        <v>253</v>
-      </c>
-      <c r="C79" t="s">
-        <v>254</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" t="s">
-        <v>258</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" t="s">
-        <v>259</v>
-      </c>
-      <c r="C82" t="s">
-        <v>260</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" t="s">
-        <v>271</v>
-      </c>
-      <c r="C88" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" t="s">
-        <v>273</v>
-      </c>
-      <c r="C89" t="s">
-        <v>274</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" t="s">
-        <v>277</v>
-      </c>
-      <c r="C91" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" t="s">
-        <v>279</v>
-      </c>
-      <c r="C92" t="s">
-        <v>280</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" t="s">
-        <v>284</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C98" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" t="s">
-        <v>293</v>
-      </c>
-      <c r="C99" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" t="s">
-        <v>295</v>
-      </c>
-      <c r="C100" t="s">
-        <v>296</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" t="s">
-        <v>297</v>
-      </c>
-      <c r="C101" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" t="s">
-        <v>299</v>
-      </c>
-      <c r="C102" t="s">
-        <v>300</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" t="s">
-        <v>301</v>
-      </c>
-      <c r="C103" t="s">
-        <v>302</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" t="s">
-        <v>303</v>
-      </c>
-      <c r="C104" t="s">
-        <v>304</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" t="s">
-        <v>305</v>
-      </c>
-      <c r="C105" t="s">
-        <v>306</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>43</v>
-      </c>
-      <c r="B107" t="s">
-        <v>308</v>
-      </c>
-      <c r="C107" t="s">
-        <v>309</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>43</v>
-      </c>
-      <c r="B108" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" t="s">
-        <v>312</v>
-      </c>
-      <c r="C109" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C110" t="s">
-        <v>315</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C111" t="s">
-        <v>317</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C112" t="s">
-        <v>319</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>43</v>
-      </c>
-      <c r="B113" t="s">
-        <v>320</v>
-      </c>
-      <c r="C113" t="s">
-        <v>321</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C114" t="s">
-        <v>323</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>43</v>
-      </c>
-      <c r="B115" t="s">
-        <v>324</v>
-      </c>
-      <c r="C115" t="s">
-        <v>325</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>43</v>
-      </c>
-      <c r="B116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C116" t="s">
-        <v>327</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" t="s">
-        <v>328</v>
-      </c>
-      <c r="C117" t="s">
-        <v>329</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" t="s">
-        <v>330</v>
-      </c>
-      <c r="C118" t="s">
-        <v>331</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" t="s">
-        <v>332</v>
-      </c>
-      <c r="C119" t="s">
-        <v>333</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" t="s">
-        <v>334</v>
-      </c>
-      <c r="C120" t="s">
-        <v>335</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C121" t="s">
-        <v>337</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C122" t="s">
-        <v>250</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" t="s">
-        <v>339</v>
-      </c>
-      <c r="C123" t="s">
-        <v>340</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C124" t="s">
-        <v>342</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C125" t="s">
-        <v>344</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" t="s">
-        <v>345</v>
-      </c>
-      <c r="C126" t="s">
-        <v>346</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>43</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" t="s">
-        <v>347</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>43</v>
-      </c>
-      <c r="B128" t="s">
-        <v>348</v>
-      </c>
-      <c r="C128" t="s">
-        <v>349</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>43</v>
-      </c>
-      <c r="B129" t="s">
-        <v>350</v>
-      </c>
-      <c r="C129" t="s">
-        <v>351</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" t="s">
-        <v>353</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>43</v>
-      </c>
-      <c r="B131" t="s">
-        <v>354</v>
-      </c>
-      <c r="C131" t="s">
-        <v>355</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" t="s">
-        <v>356</v>
-      </c>
-      <c r="C132" t="s">
-        <v>357</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133" t="s">
-        <v>358</v>
-      </c>
-      <c r="C133" t="s">
-        <v>359</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>43</v>
-      </c>
-      <c r="B134" t="s">
-        <v>360</v>
-      </c>
-      <c r="C134" t="s">
-        <v>361</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" t="s">
-        <v>362</v>
-      </c>
-      <c r="C135" t="s">
-        <v>363</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136" t="s">
-        <v>364</v>
-      </c>
-      <c r="C136" t="s">
-        <v>365</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137" t="s">
-        <v>366</v>
-      </c>
-      <c r="C137" t="s">
-        <v>367</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" t="s">
-        <v>368</v>
-      </c>
-      <c r="C138" t="s">
-        <v>369</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" t="s">
-        <v>384</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C140" t="s">
-        <v>387</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>43</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C141" t="s">
-        <v>388</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>43</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C143" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C144" t="s">
-        <v>331</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C145" t="s">
-        <v>333</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>43</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C146" t="s">
-        <v>337</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="4"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="8"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="8"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="9"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="9"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="9"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="9"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="9"/>
+      <c r="D146" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6162,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6176,7 +3845,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6185,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -6193,138 +3862,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>389</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>390</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>391</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>375</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>374</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>392</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>393</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>476</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>394</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>395</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>396</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
-        <v>397</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6353,7 +4022,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -6365,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -6373,7 +4042,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
@@ -6386,12 +4055,12 @@
         <v>464</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT(LOWER(C3),"_",D3)</f>
@@ -6404,12 +4073,12 @@
         <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.CONCAT(LOWER(C4),"_",D4)</f>
@@ -6422,12 +4091,12 @@
         <v>389</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.CONCAT(LOWER(C5),"_",D5)</f>
@@ -6440,12 +4109,12 @@
         <v>464</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.CONCAT(LOWER(C6),"_",D6)</f>
@@ -6458,12 +4127,12 @@
         <v>636</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.CONCAT(LOWER(C7),"_",D7)</f>
@@ -6476,12 +4145,12 @@
         <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.CONCAT(LOWER(C8),"_",D8)</f>
@@ -6494,12 +4163,12 @@
         <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT(LOWER(C9),"_",D9)</f>
@@ -6512,12 +4181,12 @@
         <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT(LOWER(C10),"_",D10)</f>
@@ -6530,12 +4199,12 @@
         <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT(LOWER(C11),"_",D11)</f>
@@ -6548,12 +4217,12 @@
         <v>3268</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.CONCAT(LOWER(C12),"_",D12)</f>
@@ -6566,12 +4235,12 @@
         <v>445</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.CONCAT(LOWER(C13),"_",D13)</f>
@@ -6584,12 +4253,12 @@
         <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.CONCAT(LOWER(C14),"_",D14)</f>
@@ -6602,12 +4271,12 @@
         <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.CONCAT(LOWER(C15),"_",D15)</f>
@@ -6620,12 +4289,12 @@
         <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.CONCAT(LOWER(C16),"_",D16)</f>
@@ -6638,12 +4307,12 @@
         <v>3269</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.CONCAT(LOWER(C17),"_",D17)</f>
@@ -6656,12 +4325,12 @@
         <v>389</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.CONCAT(LOWER(C18),"_",D18)</f>
@@ -6674,12 +4343,12 @@
         <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.CONCAT(LOWER(C19),"_",D19)</f>
@@ -6692,12 +4361,12 @@
         <v>636</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.CONCAT(LOWER(C20),"_",D20)</f>
@@ -6710,12 +4379,12 @@
         <v>9389</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="str">
         <f>_xlfn.CONCAT(LOWER(C21),"_",D21)</f>
@@ -6728,12 +4397,12 @@
         <v>24158</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="str">
         <f>_xlfn.CONCAT(LOWER(C22),"_",D22)</f>
@@ -6746,12 +4415,12 @@
         <v>137</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="str">
         <f>_xlfn.CONCAT(LOWER(C23),"_",D23)</f>
@@ -6764,12 +4433,12 @@
         <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="str">
         <f>_xlfn.CONCAT(LOWER(C24),"_",D24)</f>
@@ -6782,12 +4451,12 @@
         <v>445</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" t="str">
         <f>_xlfn.CONCAT(LOWER(C25),"_",D25)</f>
@@ -6800,12 +4469,12 @@
         <v>1025</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="str">
         <f>_xlfn.CONCAT(LOWER(C26),"_",D26)</f>
@@ -6818,12 +4487,12 @@
         <v>59001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="str">
         <f>_xlfn.CONCAT(LOWER(C27),"_",D27)</f>
@@ -6836,12 +4505,12 @@
         <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" t="str">
         <f>_xlfn.CONCAT(LOWER(C28),"_",D28)</f>
@@ -6854,12 +4523,12 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="str">
         <f>_xlfn.CONCAT(LOWER(C29),"_",D29)</f>
@@ -6872,12 +4541,12 @@
         <v>4011</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" t="str">
         <f>_xlfn.CONCAT(LOWER(C30),"_",D30)</f>
@@ -6890,12 +4559,12 @@
         <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" t="str">
         <f>_xlfn.CONCAT(LOWER(C31),"_",D31)</f>
@@ -6908,12 +4577,12 @@
         <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" t="str">
         <f>_xlfn.CONCAT(LOWER(C32),"_",D32)</f>
@@ -6926,12 +4595,12 @@
         <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" t="str">
         <f>_xlfn.CONCAT(LOWER(C33),"_",D33)</f>
@@ -6944,12 +4613,12 @@
         <v>443</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" t="str">
         <f>_xlfn.CONCAT(LOWER(C34),"_",D34)</f>
@@ -6962,12 +4631,12 @@
         <v>7443</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" t="str">
         <f>_xlfn.CONCAT(LOWER(C35),"_",D35)</f>
@@ -6980,12 +4649,12 @@
         <v>9443</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" t="str">
         <f>_xlfn.CONCAT(LOWER(C36),"_",D36)</f>
@@ -6998,12 +4667,12 @@
         <v>1433</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" t="str">
         <f>_xlfn.CONCAT(LOWER(C37),"_",D37)</f>
@@ -7016,12 +4685,12 @@
         <v>2107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="str">
         <f>_xlfn.CONCAT(LOWER(C38),"_",D38)</f>
@@ -7034,12 +4703,12 @@
         <v>2953</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" t="str">
         <f>_xlfn.CONCAT(LOWER(C39),"_",D39)</f>
@@ -7052,12 +4721,12 @@
         <v>2954</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" t="str">
         <f>_xlfn.CONCAT(LOWER(C40),"_",D40)</f>
@@ -7070,12 +4739,12 @@
         <v>3443</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
         <f>_xlfn.CONCAT(LOWER(C41),"_",D41)</f>
@@ -7088,12 +4757,12 @@
         <v>7510</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="str">
         <f>_xlfn.CONCAT(LOWER(C42),"_",D42)</f>
@@ -7106,12 +4775,12 @@
         <v>162</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" t="str">
         <f>_xlfn.CONCAT(LOWER(C43),"_",D43)</f>
@@ -7124,12 +4793,12 @@
         <v>7000</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="str">
         <f>_xlfn.CONCAT(LOWER(C44),"_",D44)</f>
@@ -7142,12 +4811,12 @@
         <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" t="str">
         <f>_xlfn.CONCAT(LOWER(C45),"_",D45)</f>
@@ -7160,12 +4829,12 @@
         <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B46" t="str">
         <f>_xlfn.CONCAT(LOWER(C46),"_",D46)</f>
@@ -7178,12 +4847,12 @@
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B47" t="str">
         <f>_xlfn.CONCAT(LOWER(C47),"_",D47)</f>
@@ -7196,12 +4865,12 @@
         <v>3389</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B48" t="str">
         <f>_xlfn.CONCAT(LOWER(C48),"_",D48)</f>
@@ -7214,12 +4883,12 @@
         <v>8080</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B49" t="str">
         <f>_xlfn.CONCAT(LOWER(C49),"_",D49)</f>
@@ -7232,12 +4901,12 @@
         <v>5510</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50" t="str">
         <f>_xlfn.CONCAT(LOWER(C50),"_",D50)</f>
@@ -7250,12 +4919,12 @@
         <v>5522</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" t="str">
         <f>_xlfn.CONCAT(LOWER(C51),"_",D51)</f>
@@ -7265,15 +4934,15 @@
         <v>10</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B52" t="str">
         <f>_xlfn.CONCAT(LOWER(C52),"_",D52)</f>
@@ -7286,12 +4955,12 @@
         <v>3241</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" t="str">
         <f>_xlfn.CONCAT(LOWER(C53),"_",D53)</f>
@@ -7304,12 +4973,12 @@
         <v>3243</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" t="str">
         <f>_xlfn.CONCAT(LOWER(C54),"_",D54)</f>
@@ -7322,12 +4991,12 @@
         <v>3641</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B55" t="str">
         <f>_xlfn.CONCAT(LOWER(C55),"_",D55)</f>
@@ -7340,12 +5009,12 @@
         <v>3643</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B56" t="str">
         <f>_xlfn.CONCAT(LOWER(C56),"_",D56)</f>
@@ -7358,12 +5027,12 @@
         <v>3612</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B57" t="str">
         <f>_xlfn.CONCAT(LOWER(C57),"_",D57)</f>
@@ -7376,12 +5045,12 @@
         <v>3201</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B58" t="str">
         <f>_xlfn.CONCAT(LOWER(C58),"_",D58)</f>
@@ -7394,12 +5063,12 @@
         <v>3202</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B59" t="str">
         <f>_xlfn.CONCAT(LOWER(C59),"_",D59)</f>
@@ -7412,12 +5081,12 @@
         <v>3203</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B60" t="str">
         <f>_xlfn.CONCAT(LOWER(C60),"_",D60)</f>
@@ -7430,12 +5099,12 @@
         <v>3211</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" t="str">
         <f>_xlfn.CONCAT(LOWER(C61),"_",D61)</f>
@@ -7448,12 +5117,12 @@
         <v>3212</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B62" t="str">
         <f>_xlfn.CONCAT(LOWER(C62),"_",D62)</f>
@@ -7466,12 +5135,12 @@
         <v>3222</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B63" t="str">
         <f>_xlfn.CONCAT(LOWER(C63),"_",D63)</f>
@@ -7484,12 +5153,12 @@
         <v>3232</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B64" t="str">
         <f>_xlfn.CONCAT(LOWER(C64),"_",D64)</f>
@@ -7502,12 +5171,12 @@
         <v>3242</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B65" t="str">
         <f>_xlfn.CONCAT(LOWER(C65),"_",D65)</f>
@@ -7520,12 +5189,12 @@
         <v>3601</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B66" t="str">
         <f>_xlfn.CONCAT(LOWER(C66),"_",D66)</f>
@@ -7538,12 +5207,12 @@
         <v>3602</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B67" t="str">
         <f>_xlfn.CONCAT(LOWER(C67),"_",D67)</f>
@@ -7556,12 +5225,12 @@
         <v>3603</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B68" t="str">
         <f>_xlfn.CONCAT(LOWER(C68),"_",D68)</f>
@@ -7574,12 +5243,12 @@
         <v>3622</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B69" t="str">
         <f>_xlfn.CONCAT(LOWER(C69),"_",D69)</f>
@@ -7592,12 +5261,12 @@
         <v>3642</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B70" t="str">
         <f>_xlfn.CONCAT(LOWER(C70),"_",D70)</f>
@@ -7610,12 +5279,12 @@
         <v>8022</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B71" t="str">
         <f>_xlfn.CONCAT(LOWER(C71),"_",D71)</f>
@@ -7628,12 +5297,12 @@
         <v>20443</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B72" t="str">
         <f>_xlfn.CONCAT(LOWER(C72),"_",D72)</f>
@@ -7646,12 +5315,12 @@
         <v>1090</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B73" t="str">
         <f>_xlfn.CONCAT(LOWER(C73),"_",D73)</f>
@@ -7664,12 +5333,12 @@
         <v>2443</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" t="str">
         <f>_xlfn.CONCAT(LOWER(C74),"_",D74)</f>
@@ -7682,12 +5351,12 @@
         <v>3200</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B75" t="str">
         <f>_xlfn.CONCAT(LOWER(C75),"_",D75)</f>
@@ -7700,12 +5369,12 @@
         <v>3300</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B76" t="str">
         <f>_xlfn.CONCAT(LOWER(C76),"_",D76)</f>
@@ -7718,12 +5387,12 @@
         <v>3600</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B77" t="str">
         <f>_xlfn.CONCAT(LOWER(C77),"_",D77)</f>
@@ -7736,12 +5405,12 @@
         <v>4700</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B78" t="str">
         <f>_xlfn.CONCAT(LOWER(C78),"_",D78)</f>
@@ -7754,12 +5423,12 @@
         <v>4800</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B79" t="str">
         <f>_xlfn.CONCAT(LOWER(C79),"_",D79)</f>
@@ -7772,12 +5441,12 @@
         <v>8000</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B80" t="str">
         <f>_xlfn.CONCAT(LOWER(C80),"_",D80)</f>
@@ -7790,12 +5459,12 @@
         <v>8443</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B81" t="str">
         <f>_xlfn.CONCAT(LOWER(C81),"_",D81)</f>
@@ -7808,12 +5477,12 @@
         <v>50000</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B82" t="str">
         <f>_xlfn.CONCAT(LOWER(C82),"_",D82)</f>
@@ -7826,12 +5495,12 @@
         <v>51001</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B83" t="str">
         <f>_xlfn.CONCAT(LOWER(C83),"_",D83)</f>
@@ -7844,12 +5513,12 @@
         <v>8446</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B84" t="str">
         <f>_xlfn.CONCAT(LOWER(C84),"_",D84)</f>
@@ -7862,12 +5531,12 @@
         <v>2444</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B85" t="str">
         <f>_xlfn.CONCAT(LOWER(C85),"_",D85)</f>
@@ -7880,12 +5549,12 @@
         <v>8444</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B86" t="str">
         <f>_xlfn.CONCAT(LOWER(C86),"_",D86)</f>
@@ -7898,12 +5567,12 @@
         <v>9444</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B87" t="str">
         <f>_xlfn.CONCAT(LOWER(C87),"_",D87)</f>
@@ -7916,12 +5585,12 @@
         <v>1984</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B88" t="str">
         <f>_xlfn.CONCAT(LOWER(C88),"_",D88)</f>
@@ -7934,12 +5603,12 @@
         <v>1521</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B89" t="str">
         <f>_xlfn.CONCAT(LOWER(C89),"_",D89)</f>
@@ -7949,15 +5618,15 @@
         <v>10</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>371</v>
+        <v>110</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B90" t="str">
         <f>_xlfn.CONCAT(LOWER(C90),"_",D90)</f>
@@ -7970,12 +5639,12 @@
         <v>6969</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B91" t="str">
         <f>_xlfn.CONCAT(LOWER(C91),"_",D91)</f>
@@ -7988,12 +5657,12 @@
         <v>8001</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B92" t="str">
         <f>_xlfn.CONCAT(LOWER(C92),"_",D92)</f>
@@ -8006,12 +5675,12 @@
         <v>8002</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B93" t="str">
         <f>_xlfn.CONCAT(LOWER(C93),"_",D93)</f>
@@ -8024,12 +5693,12 @@
         <v>8021</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B94" t="str">
         <f>_xlfn.CONCAT(LOWER(C94),"_",D94)</f>
@@ -8042,12 +5711,12 @@
         <v>8011</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B95" t="str">
         <f>_xlfn.CONCAT(LOWER(C95),"_",D95)</f>
@@ -8060,12 +5729,12 @@
         <v>1050</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B96" t="str">
         <f>_xlfn.CONCAT(LOWER(C96),"_",D96)</f>
@@ -8078,7 +5747,7 @@
         <v>42</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -8104,7 +5773,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -8113,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7AF6AD-6ACD-4412-874A-99CE85F4E893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A588ECEF-1132-47A4-8E70-7E6429EA6D95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="482">
   <si>
     <t>Name</t>
   </si>
@@ -686,6 +686,804 @@
   </si>
   <si>
     <t>goc_windows_filesystems</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.129_dpx04db02</t>
+  </si>
+  <si>
+    <t>172.22.150.129</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.130_dpx04db03</t>
+  </si>
+  <si>
+    <t>172.22.150.130</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.131_dpx04db04</t>
+  </si>
+  <si>
+    <t>172.22.150.131</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.160_ddx02db01</t>
+  </si>
+  <si>
+    <t>172.22.150.160</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.161_ddx02db02</t>
+  </si>
+  <si>
+    <t>172.22.150.161</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.162_ddx02db03</t>
+  </si>
+  <si>
+    <t>172.22.150.162</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.163_ddx02db04</t>
+  </si>
+  <si>
+    <t>172.22.150.163</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.20_dpx05db01</t>
+  </si>
+  <si>
+    <t>172.22.150.20</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.21_dpx05db02</t>
+  </si>
+  <si>
+    <t>172.22.150.21</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.22_dpx05db03</t>
+  </si>
+  <si>
+    <t>172.22.150.23</t>
+  </si>
+  <si>
+    <t>hoc_172.22.150.23_dpx05db04</t>
+  </si>
+  <si>
+    <t>172.22.150.22</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.100_dpx0401-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.100</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.101_dpx0402-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.101</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.102_dpx0403-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.102</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.103_dpx0404-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.103</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.104_dpx04-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.104</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.105_dpx04-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.105</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.106_dpx04-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.106</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.200_ddx0201-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.200</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.201_ddx0202-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.201</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.202_ddx0203-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.202</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.203_ddx0204-vip</t>
+  </si>
+  <si>
+    <t>172.22.160.203</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.204_ddx02-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.204</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.205_ddx02-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.205</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.206_ddx02-scan</t>
+  </si>
+  <si>
+    <t>172.22.160.206</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.46_udixos1</t>
+  </si>
+  <si>
+    <t>172.22.160.46</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.47_utsap1</t>
+  </si>
+  <si>
+    <t>172.22.160.47</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.49_sh0301ec</t>
+  </si>
+  <si>
+    <t>172.22.160.49</t>
+  </si>
+  <si>
+    <t>hoc_172.22.160.94_lpunixweb03</t>
+  </si>
+  <si>
+    <t>172.22.160.94</t>
+  </si>
+  <si>
+    <t>hoc_172.22.161.23_lx-papcops</t>
+  </si>
+  <si>
+    <t>172.22.161.23</t>
+  </si>
+  <si>
+    <t>hoc_172.22.161.72</t>
+  </si>
+  <si>
+    <t>172.22.161.72</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.61_APCDCO</t>
+  </si>
+  <si>
+    <t>172.22.162.61</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.68_dpx0501-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.68</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.69_dpx0502-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.69</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.70_dpx0503-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.70</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.71_dpx0504-vip</t>
+  </si>
+  <si>
+    <t>172.22.162.71</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.72_dpx05-scan</t>
+  </si>
+  <si>
+    <t>172.22.162.72</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.73_dpx05-scan</t>
+  </si>
+  <si>
+    <t>172.22.162.73</t>
+  </si>
+  <si>
+    <t>hoc_172.22.162.74_dpx05-scan</t>
+  </si>
+  <si>
+    <t>172.22.162.74</t>
+  </si>
+  <si>
+    <t>hoc_172.22.29.123_WPEPS02VM</t>
+  </si>
+  <si>
+    <t>172.22.29.123</t>
+  </si>
+  <si>
+    <t>hoc_172.22.29.67_WDEPS01VM</t>
+  </si>
+  <si>
+    <t>172.22.31.133</t>
+  </si>
+  <si>
+    <t>hoc_172.22.31.133_gmpgw10</t>
+  </si>
+  <si>
+    <t>172.22.29.67</t>
+  </si>
+  <si>
+    <t>hoc_172.22.31.145_WPEPS01VM</t>
+  </si>
+  <si>
+    <t>172.22.31.145</t>
+  </si>
+  <si>
+    <t>hoc_172.22.31.181_upsap3</t>
+  </si>
+  <si>
+    <t>172.22.31.181</t>
+  </si>
+  <si>
+    <t>hoc_172.22.4.71_ZSTLLTCM601</t>
+  </si>
+  <si>
+    <t>172.22.4.71</t>
+  </si>
+  <si>
+    <t>hoc_172.22.43.27_dsmprd20</t>
+  </si>
+  <si>
+    <t>172.22.43.27</t>
+  </si>
+  <si>
+    <t>hoc_172.22.43.34_uprsprt02</t>
+  </si>
+  <si>
+    <t>172.22.43.34</t>
+  </si>
+  <si>
+    <t>hoc_172.22.43.41_gmpgw20</t>
+  </si>
+  <si>
+    <t>172.22.43.41</t>
+  </si>
+  <si>
+    <t>hoc_172.22.61.100_upsap1</t>
+  </si>
+  <si>
+    <t>172.22.61.100</t>
+  </si>
+  <si>
+    <t>hoc_172.22.71.48_wpsapepprd02</t>
+  </si>
+  <si>
+    <t>172.22.71.48</t>
+  </si>
+  <si>
+    <t>hoc_172.22.71.69_wpsapepuat02</t>
+  </si>
+  <si>
+    <t>172.22.71.69</t>
+  </si>
+  <si>
+    <t>hoc_172.25.151.51_utnnm</t>
+  </si>
+  <si>
+    <t>172.25.151.51</t>
+  </si>
+  <si>
+    <t>hoc_172.25.151.52_utnnm</t>
+  </si>
+  <si>
+    <t>172.25.151.52</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.73_lpitmrtems4</t>
+  </si>
+  <si>
+    <t>172.25.159.73</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.74_lpitmrtems1</t>
+  </si>
+  <si>
+    <t>172.25.159.74</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.79_lpitmrtems6</t>
+  </si>
+  <si>
+    <t>172.25.159.79</t>
+  </si>
+  <si>
+    <t>hoc_172.25.159.99_lpunixweb01</t>
+  </si>
+  <si>
+    <t>172.25.159.99</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.216_scripts.CMLCONNECT.ORG</t>
+  </si>
+  <si>
+    <t>172.25.163.216</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.224_lpitmrtems5</t>
+  </si>
+  <si>
+    <t>172.25.163.224</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.66_wpdtimedev01vm</t>
+  </si>
+  <si>
+    <t>172.25.163.66</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.90_WPDTIME01VM</t>
+  </si>
+  <si>
+    <t>172.25.163.90</t>
+  </si>
+  <si>
+    <t>hoc_172.25.163.92_WPDTIME02VM</t>
+  </si>
+  <si>
+    <t>172.25.163.92</t>
+  </si>
+  <si>
+    <t>hoc_172.25.174.79_WPSQL14E</t>
+  </si>
+  <si>
+    <t>172.25.174.79</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.38_utmq1</t>
+  </si>
+  <si>
+    <t>172.25.181.38</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.40_utmq2</t>
+  </si>
+  <si>
+    <t>172.25.181.40</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.22_portalsvt</t>
+  </si>
+  <si>
+    <t>172.25.182.22</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.24_connecttest</t>
+  </si>
+  <si>
+    <t>172.25.182.24</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.38_connectuat</t>
+  </si>
+  <si>
+    <t>172.25.182.38</t>
+  </si>
+  <si>
+    <t>hoc_172.25.182.39_connectuat2</t>
+  </si>
+  <si>
+    <t>172.25.182.39</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.151_mercuryam-sys-new</t>
+  </si>
+  <si>
+    <t>172.25.184.151</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.154_wfctrm21</t>
+  </si>
+  <si>
+    <t>172.25.184.154</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.159_coleswebmail</t>
+  </si>
+  <si>
+    <t>172.25.184.159</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.228_connectportal</t>
+  </si>
+  <si>
+    <t>172.25.184.228</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.113_wpclsql10e</t>
+  </si>
+  <si>
+    <t>172.25.191.113</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.139_wpsapepdev01</t>
+  </si>
+  <si>
+    <t>172.25.191.139</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.140_wpsapepuat01</t>
+  </si>
+  <si>
+    <t>172.25.191.140</t>
+  </si>
+  <si>
+    <t>hoc_172.25.191.152_wpclsql11e</t>
+  </si>
+  <si>
+    <t>172.25.191.152</t>
+  </si>
+  <si>
+    <t>hoc_172.25.29.148_wpsql01</t>
+  </si>
+  <si>
+    <t>172.25.29.148</t>
+  </si>
+  <si>
+    <t>hoc_172.25.31.206_Uqsap3</t>
+  </si>
+  <si>
+    <t>172.25.31.206</t>
+  </si>
+  <si>
+    <t>hoc_172.25.31.50_ironbark</t>
+  </si>
+  <si>
+    <t>172.25.31.50</t>
+  </si>
+  <si>
+    <t>hoc_172.25.31.55_spruce</t>
+  </si>
+  <si>
+    <t>172.25.31.55</t>
+  </si>
+  <si>
+    <t>hoc_172.25.41.73_wpdms02</t>
+  </si>
+  <si>
+    <t>172.25.41.73</t>
+  </si>
+  <si>
+    <t>hoc_172.25.41.99_wpwins09vm</t>
+  </si>
+  <si>
+    <t>172.25.41.99</t>
+  </si>
+  <si>
+    <t>hoc_172.25.42.96_wpsapeptst01</t>
+  </si>
+  <si>
+    <t>172.25.42.96</t>
+  </si>
+  <si>
+    <t>hoc_172.25.43.35_uprsprt03</t>
+  </si>
+  <si>
+    <t>172.25.43.35</t>
+  </si>
+  <si>
+    <t>hoc_172.25.52.36_tivtest10</t>
+  </si>
+  <si>
+    <t>172.25.52.36</t>
+  </si>
+  <si>
+    <t>hoc_172.25.52.39_torgate10-g0</t>
+  </si>
+  <si>
+    <t>172.25.52.39</t>
+  </si>
+  <si>
+    <t>hoc_172.25.61.114_uqsap1</t>
+  </si>
+  <si>
+    <t>172.25.61.114</t>
+  </si>
+  <si>
+    <t>hoc_172.25.71.36_trm-fllweb-22</t>
+  </si>
+  <si>
+    <t>172.25.71.36</t>
+  </si>
+  <si>
+    <t>hoc_172.25.71.56_wtsql14</t>
+  </si>
+  <si>
+    <t>172.25.71.56</t>
+  </si>
+  <si>
+    <t>hoc_172.27.0.135_webmail.cmltd.net.au</t>
+  </si>
+  <si>
+    <t>172.27.0.135</t>
+  </si>
+  <si>
+    <t>hoc_172.27.0.136_as3g.coles.com.au</t>
+  </si>
+  <si>
+    <t>172.27.0.136</t>
+  </si>
+  <si>
+    <t>172.27.0.72</t>
+  </si>
+  <si>
+    <t>hoc_172.27.1.137_AppCentre</t>
+  </si>
+  <si>
+    <t>172.27.1.137</t>
+  </si>
+  <si>
+    <t>hoc_172.27.16.11_portal</t>
+  </si>
+  <si>
+    <t>172.27.16.11</t>
+  </si>
+  <si>
+    <t>hoc_172.27.16.35_login-iam-prd</t>
+  </si>
+  <si>
+    <t>172.27.16.35</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.11_tmpportalsvt</t>
+  </si>
+  <si>
+    <t>172.27.17.11</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.23_login-iam-test</t>
+  </si>
+  <si>
+    <t>172.27.17.23</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.33_login-iam</t>
+  </si>
+  <si>
+    <t>172.27.17.33</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.39_login-iam-dev</t>
+  </si>
+  <si>
+    <t>172.27.17.39</t>
+  </si>
+  <si>
+    <t>hoc_172.27.17.91_portaltest</t>
+  </si>
+  <si>
+    <t>172.27.17.91</t>
+  </si>
+  <si>
+    <t>172.27.255.84</t>
+  </si>
+  <si>
+    <t>hoc_172.27.3.207_connectuat</t>
+  </si>
+  <si>
+    <t>172.27.3.207</t>
+  </si>
+  <si>
+    <t>172.27.34.7</t>
+  </si>
+  <si>
+    <t>hoc_172.28.139.227_portaldev</t>
+  </si>
+  <si>
+    <t>172.28.139.227</t>
+  </si>
+  <si>
+    <t>hoc_192.168.173.111_lpextdns1n2</t>
+  </si>
+  <si>
+    <t>192.168.173.111</t>
+  </si>
+  <si>
+    <t>hoc_192.168.173.112_lpextdns2n2</t>
+  </si>
+  <si>
+    <t>192.168.173.112</t>
+  </si>
+  <si>
+    <t>hoc_192.168.180.50_ntp1</t>
+  </si>
+  <si>
+    <t>192.168.180.50</t>
+  </si>
+  <si>
+    <t>hoc_192.168.180.51_ntp2</t>
+  </si>
+  <si>
+    <t>192.168.180.51</t>
+  </si>
+  <si>
+    <t>hoc_192.168.241.87_Ingenico_Kidman</t>
+  </si>
+  <si>
+    <t>192.168.241.87</t>
+  </si>
+  <si>
+    <t>hoc_192.168.98.23_saprp100</t>
+  </si>
+  <si>
+    <t>192.168.98.23</t>
+  </si>
+  <si>
+    <t>hoc_192.168.99.26_saprq300</t>
+  </si>
+  <si>
+    <t>192.168.99.26</t>
+  </si>
+  <si>
+    <t>hoc_172.25.12.21_wpad01</t>
+  </si>
+  <si>
+    <t>172.25.12.21</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.37_utmq1s</t>
+  </si>
+  <si>
+    <t>172.25.181.37</t>
+  </si>
+  <si>
+    <t>hoc_172.25.181.39_utmq2s</t>
+  </si>
+  <si>
+    <t>172.25.181.39</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.161_CitrixAppcentre</t>
+  </si>
+  <si>
+    <t>172.25.184.161</t>
+  </si>
+  <si>
+    <t>hoc_172.25.184.226_portal_cmlconnect_org</t>
+  </si>
+  <si>
+    <t>172.25.184.226</t>
+  </si>
+  <si>
+    <t>hoc_172.25.29.153_wpsql06</t>
+  </si>
+  <si>
+    <t>172.25.29.153</t>
+  </si>
+  <si>
+    <t>noc_172.22.0.0-16_Tallyho_serverfarm</t>
+  </si>
+  <si>
+    <t>172.22.0.0/16</t>
+  </si>
+  <si>
+    <t>noc_172.25.0.0-16_Tooronga_serverfarm</t>
+  </si>
+  <si>
+    <t>172.25.0.0/16</t>
+  </si>
+  <si>
+    <t>noc_172.26.0.0-16_Tooronga</t>
+  </si>
+  <si>
+    <t>172.26.0.0/16</t>
+  </si>
+  <si>
+    <t>172.28.0.0</t>
+  </si>
+  <si>
+    <t>noc_172.22.61.243_utsap1</t>
+  </si>
+  <si>
+    <t>172.22.61.243</t>
+  </si>
+  <si>
+    <t>noc_172.22.61.30_sh0301ec</t>
+  </si>
+  <si>
+    <t>172.22.61.30</t>
+  </si>
+  <si>
+    <t>noc_192.168.11.0-24_loopback</t>
+  </si>
+  <si>
+    <t>192.168.11.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.208.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.208.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.219.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.219.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.220.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.220.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.221.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.221.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.222.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.222.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.224.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.224.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.225.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.225.0/24</t>
+  </si>
+  <si>
+    <t>nok_192.168.226.0-24_CSC</t>
+  </si>
+  <si>
+    <t>192.168.226.0/24</t>
+  </si>
+  <si>
+    <t>10.232.0.0/16</t>
+  </si>
+  <si>
+    <t>172.31.0.0/16</t>
+  </si>
+  <si>
+    <t>nok_10.87.192.0-18_stores</t>
+  </si>
+  <si>
+    <t>10.87.192.0/18</t>
   </si>
 </sst>
 </file>
@@ -1089,9 +1887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3918,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3368,459 +4166,1992 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="4"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="4"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="4"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="4"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="4"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="4"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="4"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="4"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="4"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="4"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="4"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="4"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="4"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140" s="8"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B141" s="8"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B142" s="9"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B143" s="9"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B144" s="9"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B145" s="9"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B146" s="9"/>
-      <c r="D146" s="1"/>
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C46" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>312</v>
+      </c>
+      <c r="C53" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" t="s">
+        <v>327</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C65" t="s">
+        <v>337</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C75" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C77" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" t="s">
+        <v>371</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C83" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>382</v>
+      </c>
+      <c r="C88" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>384</v>
+      </c>
+      <c r="C89" t="s">
+        <v>385</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>388</v>
+      </c>
+      <c r="C91" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>390</v>
+      </c>
+      <c r="C92" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>392</v>
+      </c>
+      <c r="C93" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C94" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C95" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>400</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" t="s">
+        <v>402</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>403</v>
+      </c>
+      <c r="C99" t="s">
+        <v>404</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" t="s">
+        <v>406</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
+        <v>407</v>
+      </c>
+      <c r="C101" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" t="s">
+        <v>411</v>
+      </c>
+      <c r="C103" t="s">
+        <v>412</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" t="s">
+        <v>413</v>
+      </c>
+      <c r="C104" t="s">
+        <v>414</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" t="s">
+        <v>415</v>
+      </c>
+      <c r="C105" t="s">
+        <v>416</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>417</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>418</v>
+      </c>
+      <c r="C107" t="s">
+        <v>419</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>420</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>421</v>
+      </c>
+      <c r="C109" t="s">
+        <v>422</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C110" t="s">
+        <v>424</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C111" t="s">
+        <v>426</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C112" t="s">
+        <v>428</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" t="s">
+        <v>429</v>
+      </c>
+      <c r="C113" t="s">
+        <v>430</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C114" t="s">
+        <v>432</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" t="s">
+        <v>433</v>
+      </c>
+      <c r="C115" t="s">
+        <v>434</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" t="s">
+        <v>435</v>
+      </c>
+      <c r="C116" t="s">
+        <v>436</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" t="s">
+        <v>437</v>
+      </c>
+      <c r="C117" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" t="s">
+        <v>439</v>
+      </c>
+      <c r="C118" t="s">
+        <v>440</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" t="s">
+        <v>441</v>
+      </c>
+      <c r="C119" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" t="s">
+        <v>443</v>
+      </c>
+      <c r="C120" t="s">
+        <v>444</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C121" t="s">
+        <v>446</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" t="s">
+        <v>361</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" t="s">
+        <v>447</v>
+      </c>
+      <c r="C123" t="s">
+        <v>448</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C124" t="s">
+        <v>450</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C125" t="s">
+        <v>452</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" t="s">
+        <v>453</v>
+      </c>
+      <c r="C126" t="s">
+        <v>454</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" t="s">
+        <v>455</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" t="s">
+        <v>456</v>
+      </c>
+      <c r="C128" t="s">
+        <v>457</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" t="s">
+        <v>458</v>
+      </c>
+      <c r="C129" t="s">
+        <v>459</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" t="s">
+        <v>460</v>
+      </c>
+      <c r="C130" t="s">
+        <v>461</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" t="s">
+        <v>462</v>
+      </c>
+      <c r="C131" t="s">
+        <v>463</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" t="s">
+        <v>464</v>
+      </c>
+      <c r="C132" t="s">
+        <v>465</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" t="s">
+        <v>466</v>
+      </c>
+      <c r="C133" t="s">
+        <v>467</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" t="s">
+        <v>468</v>
+      </c>
+      <c r="C134" t="s">
+        <v>469</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" t="s">
+        <v>470</v>
+      </c>
+      <c r="C135" t="s">
+        <v>471</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" t="s">
+        <v>472</v>
+      </c>
+      <c r="C136" t="s">
+        <v>473</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" t="s">
+        <v>474</v>
+      </c>
+      <c r="C137" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" t="s">
+        <v>476</v>
+      </c>
+      <c r="C138" t="s">
+        <v>477</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" t="s">
+        <v>478</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" t="s">
+        <v>479</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C141" t="s">
+        <v>481</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" t="s">
+        <v>440</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" t="s">
+        <v>442</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" t="s">
+        <v>446</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,7 +6163,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4045,7 +6376,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
+        <f t="shared" ref="B2:B33" si="0">_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
         <v>tcp_464</v>
       </c>
       <c r="C2" t="s">
@@ -4063,7 +6394,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.CONCAT(LOWER(C3),"_",D3)</f>
+        <f t="shared" si="0"/>
         <v>udp_123</v>
       </c>
       <c r="C3" t="s">
@@ -4081,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT(LOWER(C4),"_",D4)</f>
+        <f t="shared" si="0"/>
         <v>udp_389</v>
       </c>
       <c r="C4" t="s">
@@ -4099,7 +6430,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.CONCAT(LOWER(C5),"_",D5)</f>
+        <f t="shared" si="0"/>
         <v>udp_464</v>
       </c>
       <c r="C5" t="s">
@@ -4117,7 +6448,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT(LOWER(C6),"_",D6)</f>
+        <f t="shared" si="0"/>
         <v>udp_636</v>
       </c>
       <c r="C6" t="s">
@@ -4135,7 +6466,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.CONCAT(LOWER(C7),"_",D7)</f>
+        <f t="shared" si="0"/>
         <v>udp_88</v>
       </c>
       <c r="C7" t="s">
@@ -4153,7 +6484,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT(LOWER(C8),"_",D8)</f>
+        <f t="shared" si="0"/>
         <v>udp_138</v>
       </c>
       <c r="C8" t="s">
@@ -4171,7 +6502,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT(LOWER(C9),"_",D9)</f>
+        <f t="shared" si="0"/>
         <v>tcp_135</v>
       </c>
       <c r="C9" t="s">
@@ -4189,7 +6520,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.CONCAT(LOWER(C10),"_",D10)</f>
+        <f t="shared" si="0"/>
         <v>tcp_139</v>
       </c>
       <c r="C10" t="s">
@@ -4207,7 +6538,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="str">
-        <f>_xlfn.CONCAT(LOWER(C11),"_",D11)</f>
+        <f t="shared" si="0"/>
         <v>tcp_3268</v>
       </c>
       <c r="C11" t="s">
@@ -4225,7 +6556,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="str">
-        <f>_xlfn.CONCAT(LOWER(C12),"_",D12)</f>
+        <f t="shared" si="0"/>
         <v>tcp_445</v>
       </c>
       <c r="C12" t="s">
@@ -4243,7 +6574,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.CONCAT(LOWER(C13),"_",D13)</f>
+        <f t="shared" si="0"/>
         <v>tcp_88</v>
       </c>
       <c r="C13" t="s">
@@ -4261,7 +6592,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.CONCAT(LOWER(C14),"_",D14)</f>
+        <f t="shared" si="0"/>
         <v>tcp_123</v>
       </c>
       <c r="C14" t="s">
@@ -4279,7 +6610,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.CONCAT(LOWER(C15),"_",D15)</f>
+        <f t="shared" si="0"/>
         <v>tcp_137</v>
       </c>
       <c r="C15" t="s">
@@ -4297,7 +6628,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.CONCAT(LOWER(C16),"_",D16)</f>
+        <f t="shared" si="0"/>
         <v>tcp_3269</v>
       </c>
       <c r="C16" t="s">
@@ -4315,7 +6646,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="str">
-        <f>_xlfn.CONCAT(LOWER(C17),"_",D17)</f>
+        <f t="shared" si="0"/>
         <v>tcp_389</v>
       </c>
       <c r="C17" t="s">
@@ -4333,7 +6664,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="str">
-        <f>_xlfn.CONCAT(LOWER(C18),"_",D18)</f>
+        <f t="shared" si="0"/>
         <v>tcp_53</v>
       </c>
       <c r="C18" t="s">
@@ -4351,7 +6682,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="str">
-        <f>_xlfn.CONCAT(LOWER(C19),"_",D19)</f>
+        <f t="shared" si="0"/>
         <v>tcp_636</v>
       </c>
       <c r="C19" t="s">
@@ -4369,7 +6700,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.CONCAT(LOWER(C20),"_",D20)</f>
+        <f t="shared" si="0"/>
         <v>tcp_9389</v>
       </c>
       <c r="C20" t="s">
@@ -4387,7 +6718,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="str">
-        <f>_xlfn.CONCAT(LOWER(C21),"_",D21)</f>
+        <f t="shared" si="0"/>
         <v>tcp_24158</v>
       </c>
       <c r="C21" t="s">
@@ -4405,7 +6736,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.CONCAT(LOWER(C22),"_",D22)</f>
+        <f t="shared" si="0"/>
         <v>udp_137</v>
       </c>
       <c r="C22" t="s">
@@ -4423,7 +6754,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="str">
-        <f>_xlfn.CONCAT(LOWER(C23),"_",D23)</f>
+        <f t="shared" si="0"/>
         <v>udp_53</v>
       </c>
       <c r="C23" t="s">
@@ -4441,7 +6772,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="str">
-        <f>_xlfn.CONCAT(LOWER(C24),"_",D24)</f>
+        <f t="shared" si="0"/>
         <v>udp_445</v>
       </c>
       <c r="C24" t="s">
@@ -4459,7 +6790,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="str">
-        <f>_xlfn.CONCAT(LOWER(C25),"_",D25)</f>
+        <f t="shared" si="0"/>
         <v>tcp_1025</v>
       </c>
       <c r="C25" t="s">
@@ -4477,7 +6808,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="str">
-        <f>_xlfn.CONCAT(LOWER(C26),"_",D26)</f>
+        <f t="shared" si="0"/>
         <v>tcp_59001</v>
       </c>
       <c r="C26" t="s">
@@ -4495,7 +6826,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="str">
-        <f>_xlfn.CONCAT(LOWER(C27),"_",D27)</f>
+        <f t="shared" si="0"/>
         <v>tcp_80</v>
       </c>
       <c r="C27" t="s">
@@ -4513,7 +6844,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="str">
-        <f>_xlfn.CONCAT(LOWER(C28),"_",D28)</f>
+        <f t="shared" si="0"/>
         <v>tcp_21</v>
       </c>
       <c r="C28" t="s">
@@ -4531,7 +6862,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="str">
-        <f>_xlfn.CONCAT(LOWER(C29),"_",D29)</f>
+        <f t="shared" si="0"/>
         <v>udp_4011</v>
       </c>
       <c r="C29" t="s">
@@ -4549,7 +6880,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="str">
-        <f>_xlfn.CONCAT(LOWER(C30),"_",D30)</f>
+        <f t="shared" si="0"/>
         <v>udp_69</v>
       </c>
       <c r="C30" t="s">
@@ -4567,7 +6898,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="str">
-        <f>_xlfn.CONCAT(LOWER(C31),"_",D31)</f>
+        <f t="shared" si="0"/>
         <v>udp_67</v>
       </c>
       <c r="C31" t="s">
@@ -4585,7 +6916,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="str">
-        <f>_xlfn.CONCAT(LOWER(C32),"_",D32)</f>
+        <f t="shared" si="0"/>
         <v>udp_68</v>
       </c>
       <c r="C32" t="s">
@@ -4603,7 +6934,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="str">
-        <f>_xlfn.CONCAT(LOWER(C33),"_",D33)</f>
+        <f t="shared" si="0"/>
         <v>tcp_443</v>
       </c>
       <c r="C33" t="s">
@@ -4621,7 +6952,7 @@
         <v>40</v>
       </c>
       <c r="B34" t="str">
-        <f>_xlfn.CONCAT(LOWER(C34),"_",D34)</f>
+        <f t="shared" ref="B34:B65" si="1">_xlfn.CONCAT(LOWER(C34),"_",D34)</f>
         <v>tcp_7443</v>
       </c>
       <c r="C34" t="s">
@@ -4639,7 +6970,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="str">
-        <f>_xlfn.CONCAT(LOWER(C35),"_",D35)</f>
+        <f t="shared" si="1"/>
         <v>tcp_9443</v>
       </c>
       <c r="C35" t="s">
@@ -4657,7 +6988,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="str">
-        <f>_xlfn.CONCAT(LOWER(C36),"_",D36)</f>
+        <f t="shared" si="1"/>
         <v>tcp_1433</v>
       </c>
       <c r="C36" t="s">
@@ -4675,7 +7006,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="str">
-        <f>_xlfn.CONCAT(LOWER(C37),"_",D37)</f>
+        <f t="shared" si="1"/>
         <v>tcp_2107</v>
       </c>
       <c r="C37" t="s">
@@ -4693,7 +7024,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="str">
-        <f>_xlfn.CONCAT(LOWER(C38),"_",D38)</f>
+        <f t="shared" si="1"/>
         <v>tcp_2953</v>
       </c>
       <c r="C38" t="s">
@@ -4711,7 +7042,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="str">
-        <f>_xlfn.CONCAT(LOWER(C39),"_",D39)</f>
+        <f t="shared" si="1"/>
         <v>tcp_2954</v>
       </c>
       <c r="C39" t="s">
@@ -4729,7 +7060,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="str">
-        <f>_xlfn.CONCAT(LOWER(C40),"_",D40)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3443</v>
       </c>
       <c r="C40" t="s">
@@ -4747,7 +7078,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <f>_xlfn.CONCAT(LOWER(C41),"_",D41)</f>
+        <f t="shared" si="1"/>
         <v>tcp_7510</v>
       </c>
       <c r="C41" t="s">
@@ -4765,7 +7096,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="str">
-        <f>_xlfn.CONCAT(LOWER(C42),"_",D42)</f>
+        <f t="shared" si="1"/>
         <v>udp_162</v>
       </c>
       <c r="C42" t="s">
@@ -4783,7 +7114,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="str">
-        <f>_xlfn.CONCAT(LOWER(C43),"_",D43)</f>
+        <f t="shared" si="1"/>
         <v>tcp_7000</v>
       </c>
       <c r="C43" t="s">
@@ -4801,7 +7132,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="str">
-        <f>_xlfn.CONCAT(LOWER(C44),"_",D44)</f>
+        <f t="shared" si="1"/>
         <v>tcp_25</v>
       </c>
       <c r="C44" t="s">
@@ -4819,7 +7150,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="str">
-        <f>_xlfn.CONCAT(LOWER(C45),"_",D45)</f>
+        <f t="shared" si="1"/>
         <v>tcp_22</v>
       </c>
       <c r="C45" t="s">
@@ -4837,7 +7168,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="str">
-        <f>_xlfn.CONCAT(LOWER(C46),"_",D46)</f>
+        <f t="shared" si="1"/>
         <v>tcp_23</v>
       </c>
       <c r="C46" t="s">
@@ -4855,7 +7186,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="str">
-        <f>_xlfn.CONCAT(LOWER(C47),"_",D47)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3389</v>
       </c>
       <c r="C47" t="s">
@@ -4873,7 +7204,7 @@
         <v>40</v>
       </c>
       <c r="B48" t="str">
-        <f>_xlfn.CONCAT(LOWER(C48),"_",D48)</f>
+        <f t="shared" si="1"/>
         <v>tcp_8080</v>
       </c>
       <c r="C48" t="s">
@@ -4891,7 +7222,7 @@
         <v>40</v>
       </c>
       <c r="B49" t="str">
-        <f>_xlfn.CONCAT(LOWER(C49),"_",D49)</f>
+        <f t="shared" si="1"/>
         <v>tcp_5510</v>
       </c>
       <c r="C49" t="s">
@@ -4909,7 +7240,7 @@
         <v>40</v>
       </c>
       <c r="B50" t="str">
-        <f>_xlfn.CONCAT(LOWER(C50),"_",D50)</f>
+        <f t="shared" si="1"/>
         <v>tcp_5522</v>
       </c>
       <c r="C50" t="s">
@@ -4927,7 +7258,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="str">
-        <f>_xlfn.CONCAT(LOWER(C51),"_",D51)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3000-5000</v>
       </c>
       <c r="C51" t="s">
@@ -4945,7 +7276,7 @@
         <v>40</v>
       </c>
       <c r="B52" t="str">
-        <f>_xlfn.CONCAT(LOWER(C52),"_",D52)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3241</v>
       </c>
       <c r="C52" t="s">
@@ -4963,7 +7294,7 @@
         <v>40</v>
       </c>
       <c r="B53" t="str">
-        <f>_xlfn.CONCAT(LOWER(C53),"_",D53)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3243</v>
       </c>
       <c r="C53" t="s">
@@ -4981,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="B54" t="str">
-        <f>_xlfn.CONCAT(LOWER(C54),"_",D54)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3641</v>
       </c>
       <c r="C54" t="s">
@@ -4999,7 +7330,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="str">
-        <f>_xlfn.CONCAT(LOWER(C55),"_",D55)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3643</v>
       </c>
       <c r="C55" t="s">
@@ -5017,7 +7348,7 @@
         <v>40</v>
       </c>
       <c r="B56" t="str">
-        <f>_xlfn.CONCAT(LOWER(C56),"_",D56)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3612</v>
       </c>
       <c r="C56" t="s">
@@ -5035,7 +7366,7 @@
         <v>40</v>
       </c>
       <c r="B57" t="str">
-        <f>_xlfn.CONCAT(LOWER(C57),"_",D57)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3201</v>
       </c>
       <c r="C57" t="s">
@@ -5053,7 +7384,7 @@
         <v>40</v>
       </c>
       <c r="B58" t="str">
-        <f>_xlfn.CONCAT(LOWER(C58),"_",D58)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3202</v>
       </c>
       <c r="C58" t="s">
@@ -5071,7 +7402,7 @@
         <v>40</v>
       </c>
       <c r="B59" t="str">
-        <f>_xlfn.CONCAT(LOWER(C59),"_",D59)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3203</v>
       </c>
       <c r="C59" t="s">
@@ -5089,7 +7420,7 @@
         <v>40</v>
       </c>
       <c r="B60" t="str">
-        <f>_xlfn.CONCAT(LOWER(C60),"_",D60)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3211</v>
       </c>
       <c r="C60" t="s">
@@ -5107,7 +7438,7 @@
         <v>40</v>
       </c>
       <c r="B61" t="str">
-        <f>_xlfn.CONCAT(LOWER(C61),"_",D61)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3212</v>
       </c>
       <c r="C61" t="s">
@@ -5125,7 +7456,7 @@
         <v>40</v>
       </c>
       <c r="B62" t="str">
-        <f>_xlfn.CONCAT(LOWER(C62),"_",D62)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3222</v>
       </c>
       <c r="C62" t="s">
@@ -5143,7 +7474,7 @@
         <v>40</v>
       </c>
       <c r="B63" t="str">
-        <f>_xlfn.CONCAT(LOWER(C63),"_",D63)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3232</v>
       </c>
       <c r="C63" t="s">
@@ -5161,7 +7492,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="str">
-        <f>_xlfn.CONCAT(LOWER(C64),"_",D64)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3242</v>
       </c>
       <c r="C64" t="s">
@@ -5179,7 +7510,7 @@
         <v>40</v>
       </c>
       <c r="B65" t="str">
-        <f>_xlfn.CONCAT(LOWER(C65),"_",D65)</f>
+        <f t="shared" si="1"/>
         <v>tcp_3601</v>
       </c>
       <c r="C65" t="s">
@@ -5197,7 +7528,7 @@
         <v>40</v>
       </c>
       <c r="B66" t="str">
-        <f>_xlfn.CONCAT(LOWER(C66),"_",D66)</f>
+        <f t="shared" ref="B66:B97" si="2">_xlfn.CONCAT(LOWER(C66),"_",D66)</f>
         <v>tcp_3602</v>
       </c>
       <c r="C66" t="s">
@@ -5215,7 +7546,7 @@
         <v>40</v>
       </c>
       <c r="B67" t="str">
-        <f>_xlfn.CONCAT(LOWER(C67),"_",D67)</f>
+        <f t="shared" si="2"/>
         <v>tcp_3603</v>
       </c>
       <c r="C67" t="s">
@@ -5233,7 +7564,7 @@
         <v>40</v>
       </c>
       <c r="B68" t="str">
-        <f>_xlfn.CONCAT(LOWER(C68),"_",D68)</f>
+        <f t="shared" si="2"/>
         <v>tcp_3622</v>
       </c>
       <c r="C68" t="s">
@@ -5251,7 +7582,7 @@
         <v>40</v>
       </c>
       <c r="B69" t="str">
-        <f>_xlfn.CONCAT(LOWER(C69),"_",D69)</f>
+        <f t="shared" si="2"/>
         <v>tcp_3642</v>
       </c>
       <c r="C69" t="s">
@@ -5269,7 +7600,7 @@
         <v>40</v>
       </c>
       <c r="B70" t="str">
-        <f>_xlfn.CONCAT(LOWER(C70),"_",D70)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8022</v>
       </c>
       <c r="C70" t="s">
@@ -5287,7 +7618,7 @@
         <v>40</v>
       </c>
       <c r="B71" t="str">
-        <f>_xlfn.CONCAT(LOWER(C71),"_",D71)</f>
+        <f t="shared" si="2"/>
         <v>tcp_20443</v>
       </c>
       <c r="C71" t="s">
@@ -5305,7 +7636,7 @@
         <v>40</v>
       </c>
       <c r="B72" t="str">
-        <f>_xlfn.CONCAT(LOWER(C72),"_",D72)</f>
+        <f t="shared" si="2"/>
         <v>tcp_1090</v>
       </c>
       <c r="C72" t="s">
@@ -5323,7 +7654,7 @@
         <v>40</v>
       </c>
       <c r="B73" t="str">
-        <f>_xlfn.CONCAT(LOWER(C73),"_",D73)</f>
+        <f t="shared" si="2"/>
         <v>tcp_2443</v>
       </c>
       <c r="C73" t="s">
@@ -5341,7 +7672,7 @@
         <v>40</v>
       </c>
       <c r="B74" t="str">
-        <f>_xlfn.CONCAT(LOWER(C74),"_",D74)</f>
+        <f t="shared" si="2"/>
         <v>tcp_3200</v>
       </c>
       <c r="C74" t="s">
@@ -5359,7 +7690,7 @@
         <v>40</v>
       </c>
       <c r="B75" t="str">
-        <f>_xlfn.CONCAT(LOWER(C75),"_",D75)</f>
+        <f t="shared" si="2"/>
         <v>tcp_3300</v>
       </c>
       <c r="C75" t="s">
@@ -5377,7 +7708,7 @@
         <v>40</v>
       </c>
       <c r="B76" t="str">
-        <f>_xlfn.CONCAT(LOWER(C76),"_",D76)</f>
+        <f t="shared" si="2"/>
         <v>tcp_3600</v>
       </c>
       <c r="C76" t="s">
@@ -5395,7 +7726,7 @@
         <v>40</v>
       </c>
       <c r="B77" t="str">
-        <f>_xlfn.CONCAT(LOWER(C77),"_",D77)</f>
+        <f t="shared" si="2"/>
         <v>tcp_4700</v>
       </c>
       <c r="C77" t="s">
@@ -5413,7 +7744,7 @@
         <v>40</v>
       </c>
       <c r="B78" t="str">
-        <f>_xlfn.CONCAT(LOWER(C78),"_",D78)</f>
+        <f t="shared" si="2"/>
         <v>tcp_4800</v>
       </c>
       <c r="C78" t="s">
@@ -5431,7 +7762,7 @@
         <v>40</v>
       </c>
       <c r="B79" t="str">
-        <f>_xlfn.CONCAT(LOWER(C79),"_",D79)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8000</v>
       </c>
       <c r="C79" t="s">
@@ -5449,7 +7780,7 @@
         <v>40</v>
       </c>
       <c r="B80" t="str">
-        <f>_xlfn.CONCAT(LOWER(C80),"_",D80)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8443</v>
       </c>
       <c r="C80" t="s">
@@ -5467,7 +7798,7 @@
         <v>40</v>
       </c>
       <c r="B81" t="str">
-        <f>_xlfn.CONCAT(LOWER(C81),"_",D81)</f>
+        <f t="shared" si="2"/>
         <v>tcp_50000</v>
       </c>
       <c r="C81" t="s">
@@ -5485,7 +7816,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="str">
-        <f>_xlfn.CONCAT(LOWER(C82),"_",D82)</f>
+        <f t="shared" si="2"/>
         <v>tcp_51001</v>
       </c>
       <c r="C82" t="s">
@@ -5503,7 +7834,7 @@
         <v>40</v>
       </c>
       <c r="B83" t="str">
-        <f>_xlfn.CONCAT(LOWER(C83),"_",D83)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8446</v>
       </c>
       <c r="C83" t="s">
@@ -5521,7 +7852,7 @@
         <v>40</v>
       </c>
       <c r="B84" t="str">
-        <f>_xlfn.CONCAT(LOWER(C84),"_",D84)</f>
+        <f t="shared" si="2"/>
         <v>tcp_2444</v>
       </c>
       <c r="C84" t="s">
@@ -5539,7 +7870,7 @@
         <v>40</v>
       </c>
       <c r="B85" t="str">
-        <f>_xlfn.CONCAT(LOWER(C85),"_",D85)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8444</v>
       </c>
       <c r="C85" t="s">
@@ -5557,7 +7888,7 @@
         <v>40</v>
       </c>
       <c r="B86" t="str">
-        <f>_xlfn.CONCAT(LOWER(C86),"_",D86)</f>
+        <f t="shared" si="2"/>
         <v>tcp_9444</v>
       </c>
       <c r="C86" t="s">
@@ -5575,7 +7906,7 @@
         <v>40</v>
       </c>
       <c r="B87" t="str">
-        <f>_xlfn.CONCAT(LOWER(C87),"_",D87)</f>
+        <f t="shared" si="2"/>
         <v>tcp_1984</v>
       </c>
       <c r="C87" t="s">
@@ -5593,7 +7924,7 @@
         <v>40</v>
       </c>
       <c r="B88" t="str">
-        <f>_xlfn.CONCAT(LOWER(C88),"_",D88)</f>
+        <f t="shared" si="2"/>
         <v>tcp_1521</v>
       </c>
       <c r="C88" t="s">
@@ -5611,7 +7942,7 @@
         <v>40</v>
       </c>
       <c r="B89" t="str">
-        <f>_xlfn.CONCAT(LOWER(C89),"_",D89)</f>
+        <f t="shared" si="2"/>
         <v>tcp_4457-4462</v>
       </c>
       <c r="C89" t="s">
@@ -5629,7 +7960,7 @@
         <v>40</v>
       </c>
       <c r="B90" t="str">
-        <f>_xlfn.CONCAT(LOWER(C90),"_",D90)</f>
+        <f t="shared" si="2"/>
         <v>tcp_6969</v>
       </c>
       <c r="C90" t="s">
@@ -5647,7 +7978,7 @@
         <v>40</v>
       </c>
       <c r="B91" t="str">
-        <f>_xlfn.CONCAT(LOWER(C91),"_",D91)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8001</v>
       </c>
       <c r="C91" t="s">
@@ -5665,7 +7996,7 @@
         <v>40</v>
       </c>
       <c r="B92" t="str">
-        <f>_xlfn.CONCAT(LOWER(C92),"_",D92)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8002</v>
       </c>
       <c r="C92" t="s">
@@ -5683,7 +8014,7 @@
         <v>40</v>
       </c>
       <c r="B93" t="str">
-        <f>_xlfn.CONCAT(LOWER(C93),"_",D93)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8021</v>
       </c>
       <c r="C93" t="s">
@@ -5701,7 +8032,7 @@
         <v>40</v>
       </c>
       <c r="B94" t="str">
-        <f>_xlfn.CONCAT(LOWER(C94),"_",D94)</f>
+        <f t="shared" si="2"/>
         <v>tcp_8011</v>
       </c>
       <c r="C94" t="s">
@@ -5719,7 +8050,7 @@
         <v>40</v>
       </c>
       <c r="B95" t="str">
-        <f>_xlfn.CONCAT(LOWER(C95),"_",D95)</f>
+        <f t="shared" si="2"/>
         <v>tcp_1050</v>
       </c>
       <c r="C95" t="s">
@@ -5737,7 +8068,7 @@
         <v>40</v>
       </c>
       <c r="B96" t="str">
-        <f>_xlfn.CONCAT(LOWER(C96),"_",D96)</f>
+        <f t="shared" si="2"/>
         <v>tcp_42</v>
       </c>
       <c r="C96" t="s">

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98D8A9-1CCA-4F2C-97F7-83A578EEAAD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E785379-1891-47B2-BA71-48AA6D2B484D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="753" activeTab="2" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="753" activeTab="3" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -278,21 +278,12 @@
     <t>ifw-coles_1</t>
   </si>
   <si>
-    <t>grp_intranet_portal</t>
-  </si>
-  <si>
     <t>hoc_172.25.151.51_utnnm, hoc_172.25.151.52_utnnm</t>
   </si>
   <si>
     <t>hoc_172.27.255.84_idmutils</t>
   </si>
   <si>
-    <t>grp_coles_intsmtp</t>
-  </si>
-  <si>
-    <t>grp_coles_serverfarm</t>
-  </si>
-  <si>
     <t>noc_172.28.0.0_coles_dev</t>
   </si>
   <si>
@@ -300,9 +291,6 @@
   </si>
   <si>
     <t>hoc_172.25.184.159_coleswebmail, hoc_172.27.0.135_webmail.cmltd.net.au, hoc_172.27.0.136_as3g.coles.com.au</t>
-  </si>
-  <si>
-    <t>grp_proxy-int_intfc</t>
   </si>
   <si>
     <t>tcp_464, udp_123, udp_389, udp_464, udp_636, udp_88, udp_138, tcp_135, tcp_139, tcp_3268, tcp_445, tcp_88</t>
@@ -393,37 +381,13 @@
     <t>nok_172.31.0.0-16_KmartHO</t>
   </si>
   <si>
-    <t>Colesall</t>
-  </si>
-  <si>
-    <t>del_172.22.61.243_utsap1</t>
-  </si>
-  <si>
-    <t>del_172.22.61.30_sh0301ec</t>
-  </si>
-  <si>
     <t>gpc_qet_servers</t>
   </si>
   <si>
-    <t>gpc_wins</t>
-  </si>
-  <si>
     <t>grp_coles_prod_mq</t>
   </si>
   <si>
-    <t>grp_Coles_Tivoli_Servers</t>
-  </si>
-  <si>
-    <t>grp_internal_dns</t>
-  </si>
-  <si>
-    <t>grp_SAP_new</t>
-  </si>
-  <si>
     <t>grp_sysmanage_servers</t>
-  </si>
-  <si>
-    <t>grp_TRM_servers</t>
   </si>
   <si>
     <t>grp_Windows_Filesystems</t>
@@ -646,30 +610,6 @@
     <t>hoc_172.22.161.23_lx-papcops, hoc_172.22.161.72, hoc_172.22.162.61_APCDCO</t>
   </si>
   <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>goc_qet_servers</t>
-  </si>
-  <si>
-    <t>goc_wins</t>
-  </si>
-  <si>
-    <t>object not present</t>
-  </si>
-  <si>
-    <t>goc_coles_tivoli_servers</t>
-  </si>
-  <si>
-    <t>goc_internal_dns</t>
-  </si>
-  <si>
-    <t>goc_trm_servers</t>
-  </si>
-  <si>
-    <t>goc_windows_filesystems</t>
-  </si>
-  <si>
     <t>tcp_3333</t>
   </si>
   <si>
@@ -695,6 +635,24 @@
   </si>
   <si>
     <t>172.22.150.128/25</t>
+  </si>
+  <si>
+    <t>goc_test</t>
+  </si>
+  <si>
+    <t>'hoc_test', 'hoc_test2'</t>
+  </si>
+  <si>
+    <t>'hoc_test', 'hoc_test2', 'hoc_test3'</t>
+  </si>
+  <si>
+    <t>goc_fail</t>
+  </si>
+  <si>
+    <t>'hoc_test', 'hoc_test2', 'hoc_test5'</t>
+  </si>
+  <si>
+    <t>goc_test1</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1152,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
@@ -1206,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>36</v>
@@ -1218,7 +1176,7 @@
         <v>79</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>36</v>
@@ -1227,7 +1185,7 @@
         <v>36</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>29</v>
@@ -1256,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>18</v>
@@ -1268,7 +1226,7 @@
         <v>77</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>36</v>
@@ -1280,7 +1238,7 @@
         <v>79</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>36</v>
@@ -1289,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>29</v>
@@ -1318,7 +1276,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
@@ -1330,7 +1288,7 @@
         <v>77</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>36</v>
@@ -1342,7 +1300,7 @@
         <v>79</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>36</v>
@@ -1351,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>29</v>
@@ -1380,7 +1338,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>18</v>
@@ -1392,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>36</v>
@@ -1404,7 +1362,7 @@
         <v>79</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>36</v>
@@ -1413,7 +1371,7 @@
         <v>36</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>29</v>
@@ -1442,7 +1400,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
@@ -1454,7 +1412,7 @@
         <v>77</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>36</v>
@@ -1466,7 +1424,7 @@
         <v>79</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>36</v>
@@ -1475,7 +1433,7 @@
         <v>36</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>29</v>
@@ -1504,7 +1462,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -1516,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>36</v>
@@ -1528,7 +1486,7 @@
         <v>79</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>36</v>
@@ -1537,7 +1495,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>29</v>
@@ -1566,7 +1524,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -1578,7 +1536,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>36</v>
@@ -1590,7 +1548,7 @@
         <v>79</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>36</v>
@@ -1599,7 +1557,7 @@
         <v>36</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>29</v>
@@ -1628,7 +1586,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -1640,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>36</v>
@@ -1652,7 +1610,7 @@
         <v>79</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>36</v>
@@ -1661,7 +1619,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>29</v>
@@ -1690,7 +1648,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>18</v>
@@ -1702,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>36</v>
@@ -1714,7 +1672,7 @@
         <v>79</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>36</v>
@@ -1723,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>29</v>
@@ -1752,7 +1710,7 @@
         <v>72</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>18</v>
@@ -1764,7 +1722,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>36</v>
@@ -1776,7 +1734,7 @@
         <v>79</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>36</v>
@@ -1785,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>29</v>
@@ -1814,7 +1772,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>18</v>
@@ -1838,7 +1796,7 @@
         <v>79</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>36</v>
@@ -1876,7 +1834,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>18</v>
@@ -1888,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>36</v>
@@ -1900,7 +1858,7 @@
         <v>79</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>36</v>
@@ -1909,7 +1867,7 @@
         <v>36</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>29</v>
@@ -1938,7 +1896,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>18</v>
@@ -1950,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>36</v>
@@ -1962,7 +1920,7 @@
         <v>79</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>36</v>
@@ -1971,7 +1929,7 @@
         <v>36</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>29</v>
@@ -2000,7 +1958,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>18</v>
@@ -2012,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>36</v>
@@ -2024,7 +1982,7 @@
         <v>79</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>36</v>
@@ -2033,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>29</v>
@@ -2053,13 +2011,13 @@
     </row>
     <row r="16" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>18</v>
@@ -2068,7 +2026,7 @@
         <v>77</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>36</v>
@@ -2080,7 +2038,7 @@
         <v>79</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>36</v>
@@ -2089,7 +2047,7 @@
         <v>36</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>29</v>
@@ -2109,13 +2067,13 @@
     </row>
     <row r="17" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>18</v>
@@ -2124,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>36</v>
@@ -2136,7 +2094,7 @@
         <v>79</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>36</v>
@@ -2145,7 +2103,7 @@
         <v>36</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>29</v>
@@ -2165,13 +2123,13 @@
     </row>
     <row r="18" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>18</v>
@@ -2180,7 +2138,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>36</v>
@@ -2192,7 +2150,7 @@
         <v>79</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>36</v>
@@ -2201,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>29</v>
@@ -2221,13 +2179,13 @@
     </row>
     <row r="19" spans="2:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>18</v>
@@ -2236,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>36</v>
@@ -2248,7 +2206,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>36</v>
@@ -2257,7 +2215,7 @@
         <v>36</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>29</v>
@@ -2277,13 +2235,13 @@
     </row>
     <row r="20" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>18</v>
@@ -2292,7 +2250,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>36</v>
@@ -2304,16 +2262,16 @@
         <v>79</v>
       </c>
       <c r="L20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>29</v>
@@ -2333,13 +2291,13 @@
     </row>
     <row r="21" spans="2:20" ht="144" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>18</v>
@@ -2348,7 +2306,7 @@
         <v>77</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>36</v>
@@ -2360,16 +2318,16 @@
         <v>79</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>29</v>
@@ -2389,13 +2347,13 @@
     </row>
     <row r="22" spans="2:20" ht="144" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>18</v>
@@ -2404,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>36</v>
@@ -2416,16 +2374,16 @@
         <v>79</v>
       </c>
       <c r="L22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>29</v>
@@ -2445,13 +2403,13 @@
     </row>
     <row r="23" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>18</v>
@@ -2460,7 +2418,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>36</v>
@@ -2472,16 +2430,16 @@
         <v>79</v>
       </c>
       <c r="L23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>29</v>
@@ -2501,13 +2459,13 @@
     </row>
     <row r="24" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>18</v>
@@ -2516,7 +2474,7 @@
         <v>77</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>36</v>
@@ -2528,16 +2486,16 @@
         <v>79</v>
       </c>
       <c r="L24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>29</v>
@@ -2557,13 +2515,13 @@
     </row>
     <row r="25" spans="2:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>18</v>
@@ -2572,7 +2530,7 @@
         <v>77</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>36</v>
@@ -2584,16 +2542,16 @@
         <v>79</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>29</v>
@@ -2613,13 +2571,13 @@
     </row>
     <row r="26" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>18</v>
@@ -2628,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>36</v>
@@ -2640,7 +2598,7 @@
         <v>79</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>36</v>
@@ -2649,7 +2607,7 @@
         <v>36</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>29</v>
@@ -2669,13 +2627,13 @@
     </row>
     <row r="27" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>18</v>
@@ -2684,7 +2642,7 @@
         <v>77</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>36</v>
@@ -2696,7 +2654,7 @@
         <v>79</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>36</v>
@@ -2705,7 +2663,7 @@
         <v>36</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>29</v>
@@ -2725,13 +2683,13 @@
     </row>
     <row r="28" spans="2:20" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>18</v>
@@ -2740,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>36</v>
@@ -2752,7 +2710,7 @@
         <v>79</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>36</v>
@@ -2761,7 +2719,7 @@
         <v>36</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>29</v>
@@ -2781,13 +2739,13 @@
     </row>
     <row r="29" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>18</v>
@@ -2796,7 +2754,7 @@
         <v>77</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>36</v>
@@ -2808,7 +2766,7 @@
         <v>79</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>36</v>
@@ -2817,7 +2775,7 @@
         <v>36</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>29</v>
@@ -2837,13 +2795,13 @@
     </row>
     <row r="30" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>18</v>
@@ -2852,7 +2810,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>36</v>
@@ -2864,7 +2822,7 @@
         <v>79</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>36</v>
@@ -2873,7 +2831,7 @@
         <v>36</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>29</v>
@@ -2893,13 +2851,13 @@
     </row>
     <row r="31" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>18</v>
@@ -2908,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>36</v>
@@ -2920,7 +2878,7 @@
         <v>79</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>36</v>
@@ -2929,7 +2887,7 @@
         <v>36</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>29</v>
@@ -2949,13 +2907,13 @@
     </row>
     <row r="32" spans="2:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>18</v>
@@ -2964,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>36</v>
@@ -2976,7 +2934,7 @@
         <v>79</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>36</v>
@@ -2985,7 +2943,7 @@
         <v>36</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P32" s="8" t="s">
         <v>29</v>
@@ -3005,13 +2963,13 @@
     </row>
     <row r="33" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>18</v>
@@ -3020,7 +2978,7 @@
         <v>77</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>36</v>
@@ -3032,7 +2990,7 @@
         <v>79</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>36</v>
@@ -3041,7 +2999,7 @@
         <v>36</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P33" s="8" t="s">
         <v>29</v>
@@ -3061,13 +3019,13 @@
     </row>
     <row r="34" spans="2:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3034,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>36</v>
@@ -3088,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>36</v>
@@ -3097,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>29</v>
@@ -3302,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D0E66-9821-4420-9073-ECB8C986F385}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3336,13 +3294,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3350,13 +3308,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3364,13 +3322,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3378,13 +3336,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3394,17 +3352,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3426,139 +3384,45 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +3484,7 @@
         <v>464</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3638,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3646,7 +3510,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3655,15 +3519,15 @@
         <v>3333</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3672,7 +3536,7 @@
         <v>4444</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/variables/configuration.xlsx
+++ b/variables/configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudarshanVijayaKumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudarshanv/Documents/Projects/panorama/variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E785379-1891-47B2-BA71-48AA6D2B484D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E5EFA-50A5-7C47-9D03-6FFD3246701E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="753" activeTab="3" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="753" activeTab="1" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -1058,28 +1058,28 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="8"/>
-    <col min="2" max="2" width="27.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="8"/>
+    <col min="2" max="2" width="27.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="19" style="8" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="8" customWidth="1"/>
     <col min="9" max="10" width="26" style="8" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="47.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="8"/>
+    <col min="11" max="11" width="30.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="47.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="8"/>
     <col min="17" max="17" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="14.44140625" style="8"/>
+    <col min="18" max="16384" width="14.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="224" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="80" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>119</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>120</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="144" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>121</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="160" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>123</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="160" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>124</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="80" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>125</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>127</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>128</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>129</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="176" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>130</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>131</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>132</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>133</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" ht="80" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>134</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>135</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" ht="64" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>136</v>
       </c>
@@ -3083,38 +3083,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16442-E7CB-4AA7-B35A-4998D89832EC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" customWidth="1"/>
-    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="12" max="13" width="21.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -3185,7 +3184,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3264,15 +3266,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3303,7 +3305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3354,19 +3356,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E769B2-D3A4-44F7-90E9-E6DD516C6612}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3439,17 +3441,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3487,7 +3489,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -3552,15 +3554,15 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
     </row>
   </sheetData>
